--- a/health_data/src/my_dictionary_v2.xlsx
+++ b/health_data/src/my_dictionary_v2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>variable</t>
   </si>
@@ -42,7 +42,10 @@
     <t>type</t>
   </si>
   <si>
-    <t>notes</t>
+    <t>official_notes</t>
+  </si>
+  <si>
+    <t>researcher_notes</t>
   </si>
   <si>
     <t>premature_death</t>
@@ -57,7 +60,19 @@
     <t xml:space="preserve">National Center for Health Statistics; National Vital Statistics System</t>
   </si>
   <si>
+    <t xml:space="preserve">Cumulative number of years of potential life lost from deaths among county residents under age 75 (summed over three years).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregate population under age 75 (over the three years) using bridged--race-postcensal estimates released by NCHS.</t>
+  </si>
+  <si>
     <t>rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data on deaths and births were provided by NCHS and drawn from the NVSS. These data are submitted to the NVSS by the vital registration systems operated in the jurisdictions legally responsible for registering vital events. Usually this variable is calculated by the NCHS, but more recently it has been calculated by the University of Wisconsin Population Health Institute directly using  the Mortality-All County micro-data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting in 2020, each observation gets marked as unreliable or suppressed. A value of 0 means no flag is set, a value of 1 means the value is unreliable (based on death counts of 20 or less), and a value of 2 means the value was suppressed (9 or fewer deaths). As far as I can tell, earlier unreliable values are not reported as such.</t>
   </si>
 </sst>
 </file>
@@ -624,14 +639,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" style="1" width="15.68359375"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="15.8515625"/>
     <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="33.50390625"/>
     <col bestFit="1" min="3" max="3" style="1" width="7.1015625"/>
     <col customWidth="1" min="4" max="4" style="1" width="17.00390625"/>
-    <col bestFit="1" min="5" max="5" style="1" width="10.140625"/>
-    <col bestFit="1" min="6" max="6" style="1" width="12.140625"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="28.57421875"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="29.57421875"/>
     <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="12.4140625"/>
-    <col min="8" max="16384" style="1" width="9.140625"/>
+    <col bestFit="1" min="8" max="8" style="1" width="8.421875"/>
+    <col bestFit="1" min="9" max="9" style="1" width="4.57421875"/>
+    <col customWidth="1" min="10" max="10" style="1" width="50.00390625"/>
+    <col customWidth="1" min="11" max="11" style="1" width="36.8515625"/>
+    <col min="12" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="14.25">
@@ -665,19 +684,28 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="57">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+    <row r="2" s="1" customFormat="1" ht="114">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -685,8 +713,14 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/health_data/src/my_dictionary_v2.xlsx
+++ b/health_data/src/my_dictionary_v2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>variable</t>
   </si>
@@ -42,10 +42,13 @@
     <t>type</t>
   </si>
   <si>
-    <t>official_notes</t>
-  </si>
-  <si>
-    <t>researcher_notes</t>
+    <t>note1</t>
+  </si>
+  <si>
+    <t>note2</t>
+  </si>
+  <si>
+    <t>across_time_comparison</t>
   </si>
   <si>
     <t>premature_death</t>
@@ -69,10 +72,64 @@
     <t>rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Data on deaths and births were provided by NCHS and drawn from the NVSS. These data are submitted to the NVSS by the vital registration systems operated in the jurisdictions legally responsible for registering vital events. Usually this variable is calculated by the NCHS, but more recently it has been calculated by the University of Wisconsin Population Health Institute directly using  the Mortality-All County micro-data.</t>
+    <t xml:space="preserve">Data on deaths and births were provided by NCHS and drawn from the NVSS. These data are submitted to the NVSS by the vital registration systems operated in the jurisdictions legally responsible for registering vital events. Usually this variable is calculated by the NCHS, but more recently it has been calculated by the University of Wisconsin Population Health Institute directly using the Mortality-All County micro-data.</t>
   </si>
   <si>
     <t xml:space="preserve">Starting in 2020, each observation gets marked as unreliable or suppressed. A value of 0 means no flag is set, a value of 1 means the value is unreliable (based on death counts of 20 or less), and a value of 2 means the value was suppressed (9 or fewer deaths). As far as I can tell, earlier unreliable values are not reported as such.</t>
+  </si>
+  <si>
+    <t>poor_or_fair_health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults reporting fair or poor health (age-adjusted).</t>
+  </si>
+  <si>
+    <t>brfss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behavioral risk factor surveillance system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of respondents who answered "Would you say that in general your health is Excellent/Very good/Good/Fair/Poor?" with fair or poor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of adult respondents in a county.</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRFSS is a state-based random digit dial telephone survey that is conducted annually in all states, the District of Columbia, and U.S. territories. Data obtained from the BRFSS are representative of each state’s total non-institutionalized population over 18 years of age. Data are weighted using iterative proportional fitting (also called "raking") methods to reflect population distributions. Measures are age-adjusted to the 2000 U.S. standard population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the 2016 County Health Rankings, up to seven survey years of landline only BRFSS data were aggregated to produce county estimates. For the 2016 County Health Rankings and beyond, the CDC produced county estimates using single-year BRFSS data and a multilevel modeling approach based on respondent answers and their age, sex, and race/ethnicity, combined with county-level poverty, as well as county- and state-level contextual effects. To produce estimates for those counties where there were no or limited data, the modeling approach borrowed information from the entire BRFSS sample as well as Census Vintage population estimates. CDC used a parametric bootstrapping method to produce standard errors and confidence intervals for those point estimates. This estimation methodology was validated for all U.S. counties, including those with no or small (&lt; 50 respondents) samples. For the 2021 Rankings, the CDC has updated their modeling procedure for producing small-area estimates. With the PLACES project, a multilevel statistical modeling framework using multilevel regression and poststratification (MRP) is performed for small-area estimation that links BRFSS data with high spatial resolution population demographic and socioeconomic data from the Census’ American Community Survey (ACS). The CDC has performed internal and external validation studies, which confirm strong consistency between their model-based estimates and the direct BRFSS survey estimates at both the state and county levels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2015; 2016-2020; 2021-2023. Descriptively, the only disjunctures I see are between 2022 and 2023.</t>
+  </si>
+  <si>
+    <t>poor_physical_health_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Physical Health Days measures the average number of physically unhealthy days reported in the past 30 days. This measure is based on responses to the Behavioral Risk Factor Surveillance System (BRFSS) question: “Now thinking about your physical health, which includes physical illness and injury, for how many days during the past 30 days was your physical health not good?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total number of days reported by respondents as them experiencing poor physical health.</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>poor_mental_health_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Mental Health Days measures the average number of mentally unhealthy days reported in past 30 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of days respondents reported to the question "Now thinking about your mental health, which includes stress, depression, and problems with emotions, for how many days during the past 30 days was your mental health not good?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2015; 2016-2020; 2021-2023. Descriptively, I see no obvious disjunctures in the data.</t>
   </si>
 </sst>
 </file>
@@ -102,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -110,20 +167,53 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,95 +722,216 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="15.8515625"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="24.203125"/>
     <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="33.50390625"/>
-    <col bestFit="1" min="3" max="3" style="1" width="7.1015625"/>
+    <col bestFit="1" min="3" max="3" style="1" width="7.3828125"/>
     <col customWidth="1" min="4" max="4" style="1" width="17.00390625"/>
     <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="28.57421875"/>
     <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="29.57421875"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="12.4140625"/>
-    <col bestFit="1" min="8" max="8" style="1" width="8.421875"/>
-    <col bestFit="1" min="9" max="9" style="1" width="4.57421875"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="2" width="12.4140625"/>
+    <col bestFit="1" min="8" max="8" style="2" width="8.421875"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" style="2" width="7.54296875"/>
     <col customWidth="1" min="10" max="10" style="1" width="50.00390625"/>
-    <col customWidth="1" min="11" max="11" style="1" width="36.8515625"/>
-    <col min="12" max="16384" style="1" width="9.140625"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" style="1" width="74.203125"/>
+    <col bestFit="1" min="12" max="12" style="1" width="22.30078125"/>
+    <col min="13" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="14.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="14.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="114">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
+      <c r="A2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="270.75">
+      <c r="A3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="270.75">
+      <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="270.75">
+      <c r="A5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/health_data/src/my_dictionary_v2.xlsx
+++ b/health_data/src/my_dictionary_v2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>variable</t>
   </si>
@@ -27,6 +27,12 @@
     <t>sources_long</t>
   </si>
   <si>
+    <t>source_notes</t>
+  </si>
+  <si>
+    <t>source_changes</t>
+  </si>
+  <si>
     <t>numerator</t>
   </si>
   <si>
@@ -42,19 +48,28 @@
     <t>type</t>
   </si>
   <si>
-    <t>note1</t>
-  </si>
-  <si>
-    <t>note2</t>
-  </si>
-  <si>
-    <t>across_time_comparison</t>
+    <t>my_changes</t>
+  </si>
+  <si>
+    <t>missingness</t>
+  </si>
+  <si>
+    <t>ci_construction</t>
+  </si>
+  <si>
+    <t>variable_definitions</t>
+  </si>
+  <si>
+    <t>compare_time</t>
+  </si>
+  <si>
+    <t>compare_time_notes</t>
   </si>
   <si>
     <t>premature_death</t>
   </si>
   <si>
-    <t xml:space="preserve">Years of potential life lost before age 75 per 100,000 people (age-adjusted).</t>
+    <t xml:space="preserve">Years of potential life lost before age 75 per 100,000 people.</t>
   </si>
   <si>
     <t xml:space="preserve">nchs; nvss</t>
@@ -63,6 +78,9 @@
     <t xml:space="preserve">National Center for Health Statistics; National Vital Statistics System</t>
   </si>
   <si>
+    <t xml:space="preserve">Data on deaths and births were provided by NCHS and drawn from the NVSS. These data are submitted to the NVSS by the vital registration systems operated in the jurisdictions legally responsible for registering vital events. Usually this variable is calculated by the NCHS, but more recently it has been calculated by the University of Wisconsin Population Health Institute directly using the Mortality-All County micro-data.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cumulative number of years of potential life lost from deaths among county residents under age 75 (summed over three years).</t>
   </si>
   <si>
@@ -72,16 +90,16 @@
     <t>rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Data on deaths and births were provided by NCHS and drawn from the NVSS. These data are submitted to the NVSS by the vital registration systems operated in the jurisdictions legally responsible for registering vital events. Usually this variable is calculated by the NCHS, but more recently it has been calculated by the University of Wisconsin Population Health Institute directly using the Mortality-All County micro-data.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Starting in 2020, each observation gets marked as unreliable or suppressed. A value of 0 means no flag is set, a value of 1 means the value is unreliable (based on death counts of 20 or less), and a value of 2 means the value was suppressed (9 or fewer deaths). As far as I can tell, earlier unreliable values are not reported as such.</t>
   </si>
   <si>
+    <t>continuous</t>
+  </si>
+  <si>
     <t>poor_or_fair_health</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of adults reporting fair or poor health (age-adjusted).</t>
+    <t xml:space="preserve">Percentage of adults reporting fair or poor health.</t>
   </si>
   <si>
     <t>brfss</t>
@@ -90,6 +108,9 @@
     <t xml:space="preserve">behavioral risk factor surveillance system</t>
   </si>
   <si>
+    <t xml:space="preserve">BRFSS is a state-based random digit dial telephone survey that is conducted annually in all states, the District of Columbia, and U.S. territories. Data obtained from the BRFSS are representative of each state’s total non-institutionalized population over 18 years of age. Data are weighted using iterative proportional fitting (also called "raking") methods to reflect population distributions. Measures are age-adjusted to the 2000 U.S. standard population.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The numerator is the total number of respondents who answered "Would you say that in general your health is Excellent/Very good/Good/Fair/Poor?" with fair or poor.</t>
   </si>
   <si>
@@ -99,22 +120,22 @@
     <t>percent</t>
   </si>
   <si>
-    <t xml:space="preserve">BRFSS is a state-based random digit dial telephone survey that is conducted annually in all states, the District of Columbia, and U.S. territories. Data obtained from the BRFSS are representative of each state’s total non-institutionalized population over 18 years of age. Data are weighted using iterative proportional fitting (also called "raking") methods to reflect population distributions. Measures are age-adjusted to the 2000 U.S. standard population.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prior to the 2016 County Health Rankings, up to seven survey years of landline only BRFSS data were aggregated to produce county estimates. For the 2016 County Health Rankings and beyond, the CDC produced county estimates using single-year BRFSS data and a multilevel modeling approach based on respondent answers and their age, sex, and race/ethnicity, combined with county-level poverty, as well as county- and state-level contextual effects. To produce estimates for those counties where there were no or limited data, the modeling approach borrowed information from the entire BRFSS sample as well as Census Vintage population estimates. CDC used a parametric bootstrapping method to produce standard errors and confidence intervals for those point estimates. This estimation methodology was validated for all U.S. counties, including those with no or small (&lt; 50 respondents) samples. For the 2021 Rankings, the CDC has updated their modeling procedure for producing small-area estimates. With the PLACES project, a multilevel statistical modeling framework using multilevel regression and poststratification (MRP) is performed for small-area estimation that links BRFSS data with high spatial resolution population demographic and socioeconomic data from the Census’ American Community Survey (ACS). The CDC has performed internal and external validation studies, which confirm strong consistency between their model-based estimates and the direct BRFSS survey estimates at both the state and county levels.</t>
   </si>
   <si>
-    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2015; 2016-2020; 2021-2023. Descriptively, the only disjunctures I see are between 2022 and 2023.</t>
+    <t>discontinuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2015; 2016-2020; 2021-2023.</t>
   </si>
   <si>
     <t>poor_physical_health_days</t>
   </si>
   <si>
-    <t xml:space="preserve">Poor Physical Health Days measures the average number of physically unhealthy days reported in the past 30 days. This measure is based on responses to the Behavioral Risk Factor Surveillance System (BRFSS) question: “Now thinking about your physical health, which includes physical illness and injury, for how many days during the past 30 days was your physical health not good?”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The total number of days reported by respondents as them experiencing poor physical health.</t>
+    <t xml:space="preserve">Average number of physically unhealthy days reported in the past 30 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of days respondents reported to the question, “Now thinking about your physical health, which includes physical illness and injury, for how many days during the past 30 days was your physical health not good?”</t>
   </si>
   <si>
     <t>average</t>
@@ -123,13 +144,481 @@
     <t>poor_mental_health_days</t>
   </si>
   <si>
-    <t xml:space="preserve">Poor Mental Health Days measures the average number of mentally unhealthy days reported in past 30 days.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The numerator is the number of days respondents reported to the question "Now thinking about your mental health, which includes stress, depression, and problems with emotions, for how many days during the past 30 days was your mental health not good?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2015; 2016-2020; 2021-2023. Descriptively, I see no obvious disjunctures in the data.</t>
+    <t xml:space="preserve">Average number of mentally unhealthy days reported in past 30 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of days respondents reported to the question, "Now thinking about your mental health, which includes stress, depression, and problems with emotions, for how many days during the past 30 days was your mental health not good?"</t>
+  </si>
+  <si>
+    <t>low_birthweight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of live births where the infant weighed less than 2,500 grams.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data on deaths and births were provided by NCHS and drawn from the NVSS. These data are submitted to the NVSS by the vital registration systems operated in the jurisdictions legally responsible for registering vital events. Usually this variable is provided through the Health Indicators Warehouse, but more recently it has been calculated by the University of Wisconsin Population Health Institute directly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of live births for which the infant weighed less than 2,500 grams over seven years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of live births for which weight was recorded over seven years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2020-2023, I change the flag name from lbw to low_birthweight to match the full variable name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counties with fewer than 20 live births or fewer than 10 low birthweight births are reported as missing, Starting in 2020, each observation gets marked as unreliable or not. Observations are unreliable if, the relative standard error for the estimate is greater than 20% or if the number of LBW births is less than 20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For counties with between 20 and 99 births a gamma adjustment from the poisson distribution is used to calculate the CIs. For counties with 100 births or more CIs are calulated according to the normal distribution. Standard errors (SE) and birth rates for each age group are calculated. These SEs are squared and multiplied by the square of the weights and then divided by the total number of births over all age groups. The sum of these provides the variance of the estimate for each county. The square root of the variance gives the standard deviation which is then used as estimate +/- 1.96*STDE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Births are counted in the county corresponding to the mother’s address on the child’s birth certificate, regardless of where the child was born.</t>
+  </si>
+  <si>
+    <t>adult_smoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults who are current smokers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of adult respondents who reported “Yes” to the following question: Have you smoked at least 100 cigarettes in your entire life? and “Every day or some days” to the question: Do you now smoke cigarettes every day, some days, or not at all?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This measure only captures adult usage, and it only asks about cigarrete usage not e-cigarettes.</t>
+  </si>
+  <si>
+    <t>adult_obesity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of the adult population (age 18 and older) that reports a body mass index (BMI) greater than or equal to 30 kg/m2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the latest available documentation, it states that the data source changed from US Diabetes Surveillance System to the BRFSS in 2022. However, looking back at older documentation reveals the officially listed documentation changed quite a lot. Starting in 2010, the listed source was the National Center for Chronic Disease Prevention and Promotion. In 2012, the listed source changed to the BRFSS. In 2013, it switched back to the NCCDPHP. In 2014, it switched back to the BRFSS. In 2015, they list the source as the CDC Diabetes Interactive Atlas. From 2016-2019, some documentation lists the BRFSS while other documentation lists the CDC Diabetes Interactive Atlas. Starting in 2020, they list the source as the US Diabetes Surveillance System. Starting in 2022, the listed source is the BRFSS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of adult respondents age 18 and older with a BMI greater than or equal to 30kg/m2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the number of adult respondents age 18 and older.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2021; 2022-2023.</t>
+  </si>
+  <si>
+    <t>food_environment_index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index of factors that contribute to a healthy food environment, from 0 (worst) to 10 (best). Note this index is the combination of two other variables (food_insecurity and limited_access_to_healthy_foods).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usda; fea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDA Food Environmental Atlas; Map the Meal Gap From Feeding America</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Food Environmental Atlas assembles statistics on three broad categories of food environment factors: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Food Choices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Indicators of the community's access to and acquisition of healthy, affordable food (such as access and proximity to a grocery store, number of foodstores and restaurants, expenditures on fast foods, food and nutrition assistance program participation, food prices, food taxes, and availability of local foods). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Health and Well-Being</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Indicators of the community's success in maintaining healthy diet. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Community Characteristics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Indicators of community characteristics that might influence the food environment such as demographic composition, income and poverty, population loss, metro-nonmetro status, natural amenities, and recreation and fitness centers. Using the annual USDA Food Security Survey, the Feeding America (Map the Meal Gap) group models the relationship between food insecurity and other variables at the state level. Using information for these variables at the county level, the data providers establish food insecurity by county. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Not applicable</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Food Environment Index equally weights two indicators of the food environment: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Limited access to healthy foods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estimates the percent of the population that is low income and does not live close to a grocery store. Low income is defined as having an annual family income of less than or equal to 200 percent of the federal poverty threshold for the family size. Living close to a grocery store means living less than 10 miles from a grocery store in rural areas versus in nonrural areas it means less than 1 mile. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Food insecurity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estimates the percentage of the population that did not have access to a reliable source of food during the past year. A two-stage fixed effects model was created using information from the Community Population Survey, Bureau of Labor Statistics, and American Community Survey to estimate food insecurity.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">see notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider states that this measure can be compared across all time periods available although they do not recommend it stating that due to the scaled nature of the measure, it is impossible to track county progress.</t>
+  </si>
+  <si>
+    <t>physical_inactivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults age 18 and over reporting no leisure-time physical activity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the latest available documentation, it states that the data source changed from US Diabetes Surveillance System to the BRFSS in 2022. However, looking back at older documentation reveals the officially listed documentation changed quite a lot. Starting in 2010, the listed source was the National Center for Chronic Disease Prevention and Promotion. In 2012, the listed source changed to the BRFSS. In 2013, it switched back to the NCCDPHP. In 2014, it switched back to the BRFSS. Starting in 2015, they list the source as the CDC Diabetes Interactive Atlas. Starting in 2020, they list the source as the US Diabetes Surveillance System. Starting in 2022, the listed source is the BRFSS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of BRFSS Respondents who answered "no" to the question, "During the past month, other than your regular job, did you participate in any physical activities or exercises such as running, calisthenics, golf, gardening, or walking for exercise?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the number of BRFSS respondents age 18 and older.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2012-2021; 2022-2023.</t>
+  </si>
+  <si>
+    <t>access_to_exercise_opportunities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population with adequate access to locations for physical activity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latw; esri; tiger; ymca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living Atlas of the World; ESRI map data; US Census Tigerline Files; YMCA location data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These data files are combined in ArcGIS Pro to create the measure. The ArcGIS Business Analyst, for a fee, provides access to corporate families, industries, key executives, and financial data. The ArcGIS Living Atlas public use USA Parks data provides boundaries of National and State parks and forests, along with County, Regional and Local parks within the United States. The YMCA provides a national file identifying YMCA locations with opportunities for physical activity. The US Census provides TIGER/Line Shapefiles spatial extracts from the Census Bureau's MAF/TIGER database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total 2020 population living in census blocks with adequate access to at least one location for physical activity. Adequate access is defined as census blocks where the border is a half-mile or less from a park, 1 mile or less from a recreational facility in an urban area, or 3 miles or less from a recreational facility in a rural area.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the 2020 resident county population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parks include local, state, and national parks. Recreational facilities include YMCAs as well as businesses including a wide variety of facilities such as gyms, community centers, dance studios and pools, identified by the following Standard Industry Classification (SIC) codes: 799101, 799102, 799103, 799106, 799107, 799108, 799109, 799110, 799111, 799112, 799201, 799701, 799702, 799703, 799704, 799707, 799711, 799717, 799723, 799901, 799908, 799958, 799969, 799971, 799984, or 799998.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider does not recommend using this variable to track progress over time. If one does though, they recommend the following time comparisons: 2014-2017; 2018-2022; 2023. In 2018, data provider switched from using North American Information Classification System (NAICS) codes to Standard Industry Classification (SIC) codes. In 2022, data provider switched from DeLorme map data to ESRI map data. In 2023, data provider switched from using 2010 census blocks and population counts to 2020 census blocks and population counts and used the new 2020 Census Urban Areas to assign urban/rural status to recreational facilities and YMCAs.</t>
+  </si>
+  <si>
+    <t>excessive_drinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of a county’s adult population that reports binge or heavy drinking in the past 30 days.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of adult respondents reporting either binge drinking or heavy drinking. Binge drinking is defined as a woman consuming more than four alcoholic drinks during a single occasion or a man consuming more than five alcoholic drinks during a single occasion. Heavy drinking is defined as a woman drinking more than one drink on average per day or a man drinking more than two drinks on average per day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2011-2015; 2016-2020; 2021-2023.</t>
+  </si>
+  <si>
+    <t>binge_drinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of adults that report binge drinking in the past 30 days. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The documentation does not defintively state how this measure is different from excessive_drinking, but my guess is this measure captures only binge drinking ratherr than binge and heavy drinking.</t>
+  </si>
+  <si>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider states that this measure can be compared across all time periods available. This measure should not be used with excessive_drinking, though, since the two measures are measuring different things. This variable is only availabe from 2010-2011, and it seems to have been replaced by excessive_drinking.</t>
+  </si>
+  <si>
+    <t>alcohol-impaired_driving_deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of motor vehicle crash deaths with alcohol involvement.</t>
+  </si>
+  <si>
+    <t>fars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatality Analysis Reporting System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARS is a census of fatal motor vehicle crashes with a set of data files documenting all qualifying fatalities that occurred within the 50 States, the District of Columbia, and Puerto Rico since 1975. To qualify as a FARS case, the crash had to involve a motor vehicle traveling on a trafficway customarily open to the public, and must have resulted in the death of a motorist or a non-motorist within 30 days of the crash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2016, they report the BRFSS as the source in some of the documentation, but I believe this is a mistake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of alcohol-impaired motor vehicle crash deaths in the 5-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of motor vehicle crash deaths in the 5-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The National Highway Traffic Safety Administration defines a fatal crash as alcohol-related or alcohol-involved if either a driver or a non-motorist (usually a pedestrian or bicyclist) had a measurable or estimated blood alcohol concentration of 0.01 grams per deciliter or above. Reported for the county of occurrence (not county of residence).</t>
+  </si>
+  <si>
+    <t>sexually_transmitted_infections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of newly diagnosed chlamydia cases per 100,000 population. </t>
+  </si>
+  <si>
+    <t>nchhstp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Center for Hepatitis, HIV, STD, and TB Prevention; CDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of reported chlamydia cases in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total county population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator and denominator are from different years in the 2010 release. In the 2010 release, this variable was called chlamydia_rate, but I changed it to sexually_transmitted_infections for consistency purposes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with 1 to 3 cases in the time frame.</t>
+  </si>
+  <si>
+    <t>teen_births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of births per 1,000 female population ages 15-19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of births to mothers ages 15-19 in the 7-year time frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the aggregated female population, ages 15-19, over the 7-year time frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counties with fewer than 20 live births or fewer than 10 teen births are reported as missing,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Births are counted in the county corresponding to the mother’s address on the child’s birth certificate regardless of where the child was born.</t>
+  </si>
+  <si>
+    <t>uninsured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population under the age of 65 without health insurance.</t>
+  </si>
+  <si>
+    <t>sahie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small area health insurance estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of people currently uninsured in the county under the age of 65.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the number of people in the county under age 65.</t>
+  </si>
+  <si>
+    <t>primary_care_provider_rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of primary care providers in patient care per 100,000 people. Ratio value is the number of people per primary care providers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hrsa; ahrf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">health resources and services administration; area health resource file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Area Health Resource File is a collection of data from many sources, including: the American Medical Association, American Hospital Association, US Census Bureau, Centers for Medicare &amp; Medicaid Services, Bureau of Labor Statistics, and National Center for Health Statistics. The American Medical Association maintains the Physician Masterfile, which contains information on nearly all the Doctors of Medicine and Doctors of Osteopathic Medicine in the nation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When calculating the rate, the numerator is the number of primary care providers. When calculating the ratio, the numerator (or left-hand side) is the total county population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When calculating the rate, the denominator is the total county population. When calculating the ratio, the denominator (or right-hand side), is the number of primary care providers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I transformed the primary_care_provider_rate_per_100000 into this variable and recoded the stem to be the raw value. Additionally, I recoded the ratio_of_population_to_primary_care_providers into this variable and recoded the stem to the ratio. Note this has a different variable name from other future versions of this variable despite ostensibly having the same data source (this variable name only exists in 2010). I would caution users when using this variable because I could not recreate the raw value/ratio values when using the given numerators and denominators. So it is unclear exactly what the creators of the data did to create this measure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concerning the ratio variable, "When a county has no reported providers, the value for the ratio variable is assigned to be the negative population value. This means for counties with zero providers, the value is stored as a negative number (e.g., if the ratio is 2000:0, the value stored in the field would be -2000.)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For this variable, primary care providers are defined as practicing non-federal M.D.s under the age of 75 specializing in general practice medicine, family medicine, internal medicine, and pediatrics. This does not include D.O.s, nurse practitioners, or physician assistants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider states that this measure can be compared across all time periods available. However, this variable is only available for 2010.</t>
+  </si>
+  <si>
+    <t>primary_care_physicians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of primary care providers in patient care per person. Ratio value is the number of people per primary care providers. It should be noted that the documentation states it is the number of doctors per 100,000 people, but it is actually the number of doctors per 1 person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recode the ratio_of_population_to_primary_care_providers to this variable and changed the stem value to ratio from 2011-2023. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with population greater than 2,000 and 0 primary care physicians. Concerning the ratio variable, "When a county has no reported providers, the value for the ratio variable is assigned to be the negative population value. This means for counties with zero providers, the value is stored as a negative number (e.g., if the ratio is 2000:0, the value stored in the field would be -2000.)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For this variable, primary care providers are defined as practicing non-federal M.D.s and D.O.s under the age of 75 specializing in general practice medicine, family medicine, internal medicine, and pediatrics. This does not include nurse practitioners or physician assistants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2011-2012; 2013-2023. This is because the definition of a primary care provider was updated in 2013 to inlcude D.O.s and remove obstetricians and gynecologists.</t>
+  </si>
+  <si>
+    <t>dentists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of dentists per person. The ratio value is the number of people per dentist. It should be noted that the documentation states it is the number of doctors per 100,000 people, but it is actually the number of doctors per 1 person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahrf; cms npi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area health resource file; CMS national provider identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Area Health Resource File is a collection of data from many sources, including: the American Medical Association, American Hospital Association, US Census Bureau, Centers for Medicare &amp; Medicaid Services, Bureau of Labor Statistics, and National Center for Health Statistics. The Centers for Medicare &amp; Medicaid Services maintains the National Provider Identifier (NPI) Downloadable File. This file contains information on every healthcare provider with a provider ID number. Any provider who electronically transmits health information in connection with a HIPAA standard transaction is required to have a provider ID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When calculating the rate, the numerator is the number of dentists. When calculating the ratio, the numerator (or left-hand side) is the total county population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When calculating the rate, the denominator is the total county population. When calculating the ratio, the denominator (or right-hand side), is the number of dentists.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recode the ratio_of_population_to_dentists to this variable and changed the stem value to ratio from 2012-2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with population greater than 4,000 and 0 dentists. Concerning the ratio variable, "When a county has no reported providers, the value for the ratio variable is assigned to be the negative population value. This means for counties with zero providers, the value is stored as a negative number (e.g., if the ratio is 2000:0, the value stored in the field would be -2000.)" The data providers found an error in the calculation of population to provider ratios for dentists in 2013 and 2014. They double-counted people living in group quarters (like dorms or prisons) in each county. Presumably, the data from their website is up-to-date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider states that this measure can be compared across all time periods available. This variable did not become part of the rankings until 2013, but presumably the 2012 release is compatible with the newer releases.</t>
+  </si>
+  <si>
+    <t>mental_health_providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of mental health providers per person. The ratio value is the number of people per mental health provider. It should be noted that the documentation states it is the number of doctors per 100,000 people, but it is actually the number of doctors per 1 person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cms npi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMS National Provider Identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Centers for Medicare &amp; Medicaid Services maintains the National Provider Identifier (NPI) Downloadable File. This file contains information on every healthcare provider with a provider ID number. Any provider who electronically transmits health information in connection with a HIPAA standard transaction is required to have a provider ID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When calculating the rate, the numerator is the number of mental health providers. When calculating the ratio, the numerator (or left-hand side) is the total county population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When calculating the rate, the denominator is the total county population. When calculating the ratio, the denominator (or right-hand side), is the number of mental health providers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recode the ratio_of_population_to_primary_care_providers to this variable and changed the stem value to ratio from 2011-2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with population greater than 1,000 and 0 mental health providers. Concerning the ratio variable, "When a county has no reported providers, the value for the ratio variable is assigned to be the negative population value. This means for counties with zero providers, the value is stored as a negative number (e.g., if the ratio is 2000:0, the value stored in the field would be -2000.)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental health providers are defined as psychiatrists, psychologists, licensed clinical social workers, counselors, marriage and family therapists, mental health providers that treat alcohol and other drug abuse, and advanced practice nurses specializing in mental health care.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider does not recommend using this variable to track progress. In 2015, marriage and family therapists and mental health providers that treat alcohol and other drug abuse were added to this measure so it is unclear how incomparable the measures are before and after this change. Second, they discovered an error in their estimates from 2014-2016 where they were counting mental health organizations along with mental health providers. The corrected estimates are available from 2015-2016 but not 2014. Thus, there are no estimates available for 2014. Third, this variable was available as an unranked variable from 2011-2013, but it is unclear how comparable estimates are from those years to future years for the above stated reasons and also because the source for the variable was also different (it was hrsa; ahrf). Fourth, there are concerns that many providers that are no longer practicing are not deactivated resulting in an overestimate in the number of practicing providers. If one truly wishes to make cross-time comparisons, one should only use estimates from 2011-2013 or 2015-2023.</t>
   </si>
 </sst>
 </file>
@@ -159,7 +648,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -167,26 +656,11 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -197,22 +671,13 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -722,26 +1187,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="24.203125"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="33.50390625"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="29.421875"/>
+    <col customWidth="1" min="2" max="2" style="1" width="31.421875"/>
     <col bestFit="1" min="3" max="3" style="1" width="7.3828125"/>
     <col customWidth="1" min="4" max="4" style="1" width="17.00390625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="28.57421875"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="29.57421875"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="2" width="12.4140625"/>
-    <col bestFit="1" min="8" max="8" style="2" width="8.421875"/>
-    <col bestFit="1" customWidth="1" min="9" max="9" style="2" width="7.54296875"/>
-    <col customWidth="1" min="10" max="10" style="1" width="50.00390625"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" style="1" width="74.203125"/>
-    <col bestFit="1" min="12" max="12" style="1" width="22.30078125"/>
-    <col min="13" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="5" max="6" style="1" width="48.57421875"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="28.57421875"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="18.57421875"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" style="2" width="12.4140625"/>
+    <col bestFit="1" min="10" max="10" style="2" width="8.421875"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" style="1" width="7.421875"/>
+    <col customWidth="1" min="12" max="12" style="1" width="42.8515625"/>
+    <col customWidth="1" min="13" max="13" style="1" width="48.8515625"/>
+    <col customWidth="1" min="14" max="14" style="1" width="70.00390625"/>
+    <col customWidth="1" min="15" max="15" width="70.00390625"/>
+    <col bestFit="1" customWidth="1" min="16" max="16" width="13.28125"/>
+    <col bestFit="1" customWidth="1" min="17" max="17" width="53.28125"/>
+    <col min="18" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="14.25">
@@ -775,163 +1244,927 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="114">
       <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" ht="285">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" ht="285">
+      <c r="A4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" ht="285">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" ht="114">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4">
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" ht="285">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2">
         <v>1</v>
       </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" ht="270.75">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    <row r="8" ht="213.75">
+      <c r="A8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" ht="299.25">
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="O9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" ht="185.25">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" ht="171">
+      <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" ht="285">
+      <c r="A12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" ht="128.25">
+      <c r="A13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" ht="114">
+      <c r="A14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" ht="71.25">
+      <c r="A15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="L15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" ht="114">
+      <c r="A16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" ht="57">
+      <c r="A17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="K17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="5"/>
     </row>
-    <row r="4" ht="270.75">
-      <c r="A4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="18" ht="213.75">
+      <c r="A18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="L18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S18" s="1"/>
     </row>
-    <row r="5" ht="270.75">
-      <c r="A5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="19" ht="156.75">
+      <c r="A19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="Q19" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" ht="171">
+      <c r="A20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>38</v>
+      <c r="L20" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" ht="270.75">
+      <c r="A21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/health_data/src/my_dictionary_v2.xlsx
+++ b/health_data/src/my_dictionary_v2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t>variable</t>
   </si>
@@ -42,9 +42,6 @@
     <t>age_adjusted</t>
   </si>
   <si>
-    <t>modeled</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -213,7 +210,7 @@
     <t xml:space="preserve">Index of factors that contribute to a healthy food environment, from 0 (worst) to 10 (best). Note this index is the combination of two other variables (food_insecurity and limited_access_to_healthy_foods).</t>
   </si>
   <si>
-    <t xml:space="preserve">usda; fea</t>
+    <t xml:space="preserve">usda fea; mmg</t>
   </si>
   <si>
     <t xml:space="preserve">USDA Food Environmental Atlas; Map the Meal Gap From Feeding America</t>
@@ -528,6 +525,9 @@
     <t xml:space="preserve">When calculating the rate, the denominator is the total county population. When calculating the ratio, the denominator (or right-hand side), is the number of primary care providers.</t>
   </si>
   <si>
+    <t xml:space="preserve">rate; ratio</t>
+  </si>
+  <si>
     <t xml:space="preserve">I transformed the primary_care_provider_rate_per_100000 into this variable and recoded the stem to be the raw value. Additionally, I recoded the ratio_of_population_to_primary_care_providers into this variable and recoded the stem to the ratio. Note this has a different variable name from other future versions of this variable despite ostensibly having the same data source (this variable name only exists in 2010). I would caution users when using this variable because I could not recreate the raw value/ratio values when using the given numerators and denominators. So it is unclear exactly what the creators of the data did to create this measure.</t>
   </si>
   <si>
@@ -619,13 +619,805 @@
   </si>
   <si>
     <t xml:space="preserve">Data provider does not recommend using this variable to track progress. In 2015, marriage and family therapists and mental health providers that treat alcohol and other drug abuse were added to this measure so it is unclear how incomparable the measures are before and after this change. Second, they discovered an error in their estimates from 2014-2016 where they were counting mental health organizations along with mental health providers. The corrected estimates are available from 2015-2016 but not 2014. Thus, there are no estimates available for 2014. Third, this variable was available as an unranked variable from 2011-2013, but it is unclear how comparable estimates are from those years to future years for the above stated reasons and also because the source for the variable was also different (it was hrsa; ahrf). Fourth, there are concerns that many providers that are no longer practicing are not deactivated resulting in an overestimate in the number of practicing providers. If one truly wishes to make cross-time comparisons, one should only use estimates from 2011-2013 or 2015-2023.</t>
+  </si>
+  <si>
+    <t>preventable_hospital_stays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of hospital stays for ambulatory-care sensitive conditions per 1,000 Medicare enrollees.</t>
+  </si>
+  <si>
+    <t>mmdt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapping Medicare Disparities Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2019, the source changed from the Dartmouth Atlas of Health Care to Mapping Medicare Disparities. With the change, the following conditions were removed from consideration as preventable: convulsions, congestive heart failure, angina, cellulitis, diabetes, gastroenteritis, and kidney/urinary infection. The measure also changed from per 1,000 to per 100,000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of  hospital discharges for Medicare beneficiaries ages 18 years or older continuously enrolled in Medicare fee-for-service Part A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the number of Medicare beneficiaries ages 18 years or older continuously enrolled in Medicare fee-for-service Part A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2019-2023, I change the estimate back to per 1,000 to make results comparable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individuals must have been hospitalized with one of the following conditions: diabetes with short or long-term complications, uncontrolled diabetes without complications, diabetes with lower-extremity amputation, chronic obstructive pulmonary disease, asthma, hypertension, heart failure, dehydration, bacterial pneumonia, or urinary tract infection. Individuals enrolled in Medicare Advantage at any point during the year are excluded. In addition, beneficiaries who died during the year, but otherwise were continuously enrolled up until the date of death, as well as beneficiaries who became eligible for enrollment following the first of the year, but were continuously enrolled from that date to the end of the year, are included in the analysis population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2010-2018; 2019-2023.</t>
+  </si>
+  <si>
+    <t>mammography_screening_65_74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of female Medicare Part B enrollees ages 65-74 that received an annual mammography screening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2019, the source changed from the Dartmouth Atlas of Health Care to Mapping Medicare Disparities. The Dartmouth Atlas of Health Care only measured females ages 67 - 69.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of women ages 65-74 enrolled in Medicare Part B for at least one month of the selected year who have had a mammogram in the last year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the number of females ages 65-74 enrolled in Medicare Part B for at least one month of the selected year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I manually split mammography_screening into two variables: mammography_screening_65_74 to cover 2019-2023 and mammography_screening_67_69 to cover 2010-2018. See source_changes for more details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individuals enrolled in Medicare Advantage at any point during the year are excluded. The following Current Procedural Terminology/Healthcare Procedure Coding System codes are used for defining a mammography: 77052, 77057, 77063, G0202.</t>
+  </si>
+  <si>
+    <t>mammography_screening_67_69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of female Medicare enrollees ages 67-69 who had at least 1 mammogram in the past 2 years.</t>
+  </si>
+  <si>
+    <t>dahc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dartmouth Atlas of Health Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of women ages 67-69 enrolled in Medicare  who have had a mammogram in the past 2 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the number of females ages 67-69 enrolled in Medicare.</t>
+  </si>
+  <si>
+    <t>flu_vaccinations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of Medicare part B enrollees who received an annual flu vaccination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of people  enrolled in Medicare Part B for at least one month of the selected year and who have received a covered influenza vaccine in the last year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the number of people enrolled in Medicare Part B for at least one month of the selected year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individuals enrolled in Medicare Advantage at any point during the year are excluded. The following Current Procedural Terminology/Healthcare Procedure Coding System codes are used for defining a flu vaccination: 90630, 90653-90657, 90660-90662, 90672-90674, 90685-90688, Q2035-Q2039, G0008.</t>
+  </si>
+  <si>
+    <t>high_school_completion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults age 25 and over with a high school diploma or equivalent.</t>
+  </si>
+  <si>
+    <t>acs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Community Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of individuals ages 25 and over with at least a high school diploma or equivalent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of individuals ages 25 and over in a county.</t>
+  </si>
+  <si>
+    <t>some_college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults ages 25-44 with some post-secondary education. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of individuals ages 25-44 with at least some post-secondary education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of individuals ages 25-44.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some college refers to enrollment in vocational/technical schools, junior colleges, or 4-year colleges. It includes individuals who pursued education following high school but did not receive a degree as well as those who attained degrees.</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of the county’s civilian labor force, ages 16 and older that is unemployed but seeking work.</t>
+  </si>
+  <si>
+    <t>laus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local area unemployment statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of people in the civilian labor force, ages 16 and older, who are unemployed but seeking work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of people in the civilian labor force, ages 16 and older.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployed persons are defined as persons who had no employment during the reference week, were available for work, except for temporary illness, and had made specific efforts to find employment some time during the 4-week period ending with the reference week. Persons who were waiting to be recalled to a job from which they had been laid off need not have been looking for work to be classified as unemployed. The civilian labor force includes all persons in the civilian noninstitutional population classified as either employed or unemployed. Employed persons are all persons who, during the reference week (the week including the 12th day of the month), (a) did any work as paid employees, worked in their own business or profession or on their own farm, or worked 15 hours or more as unpaid workers in an enterprise operated by a member of their family, or (b) were not working but who had jobs from which they were temporarily absent because of vacation, illness, bad weather, childcare problems, maternity or paternity leave, labor-management dispute, job training, or other family or personal reasons, whether or not they were paid for the time off or were seeking other jobs. Each employed person is counted only once, even if he or she holds more than one job.</t>
+  </si>
+  <si>
+    <t>children_in_poverty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of people under age 18 living in poverty.</t>
+  </si>
+  <si>
+    <t>saipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">small area income and poverty estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The racial sub-category data comes from the American Community Survey (ACS).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of people under age 18 living in a household whose income is below the poverty level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of people under age 18 in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poverty status is defined by family; either everyone in the family is in poverty or no one in the family is in poverty. The characteristics of the family used to determine the poverty threshold are: number of people, number of related children under 18, and whether or not the primary householder is over age 65. Family income is then compared to the poverty threshold; if that family’s income is below that threshold, the family is in poverty.</t>
+  </si>
+  <si>
+    <t>income_inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of income at 80th percentile to income at the 20th percentile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">american community survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the 80th percentile of household income in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the 20th percentile of household income in a county.</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2010, this variable was measuring the Gini coefficient. I changed the name of the variable in that year to gini_coefficient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income, defined as “total income,” is the sum of the amounts reported separately for wage or salary income; net self-employment income; interest, dividends, or net rental or royalty income or income from estates and trusts; Social Security or Railroad Retirement income;  Supplemental Security Income (SSI); public assistance or welfare payments; retirement, survivor, or disability pensions; and all other income. Receipts from the following sources are not included as income: capital gains, money received from the sale of property (unless the recipient was engaged in the business of selling such property); the value of income “in kind” from food stamps, public housing subsidies, medical care, employer contributions for individuals, etc.; withdrawal of bank deposits; money borrowed; tax refunds; exchange of money between relatives living in the same household; gifts and lump-sum inheritances, insurance payments, and other types of lump-sum receipts.</t>
+  </si>
+  <si>
+    <t>gini_coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gini coefficient of household income inequality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I changed this variable from income_inequality to gini_coefficient in 2010. This is to differentiate it from later versions of income_inequality which calculate income inequality differently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This variable is only available in 2010.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">children_in_single-parent_households </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of people under the age of 18 that live in a family household headed by a single parent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of children in family households where the household is headed by a single parent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the number of children living in family households in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A family household is considered headed by a single parent if the head of household has no spouse present. Foster children and children living in non-family households or group quarters are not included in either the numerator or denominator. Confusingly, this variable first appears in 2011 (distinct from single-parent_households which was discontinued after one year of usage in 2010), but it uses the same definition as single-parent_households (despite having a new name). Starting with the 2012 release, the documentation reflects the variable's current meaning. It is unclear, to me, what the 2011 release of the variable is exactly measuring (percent children living in single-parent households vs. percent of households that are single-parent households). Based on the change in variable name and the fact that the data providers say the 2011 release can be compared to subsequent releases, I believe the 2011 release is commensurable with future releases. This would mean the 2011 documentation is mistaken in what it says the variable is measuring. The other possibility is that the current documentation is wrong, and the 2011 is not commensurable with current releases (and should perhaps be renamed to single-parent_households).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data provider recommends the following time comparisons: 2011-2015; 2016-2018; 2019-2023. Prior to the 2013 data releases of the American Community Survey, people who reported being in a same-sex marriage were recoded and counted as unmarried partners, so households where children were living with same-sex parents were reported as single-parent households. Beginning with the 2013 ACS data releases (included in the 2015 Rankings), same-sex spouses were no longer recoded and were counted as married couples. Also, beginning with the 2019 ACS releases (included in the 2021 Rankings), cohabiting households were reported separate from single-parent households. Cohabiting unmarried households are no longer included in the numerator. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Based on the documentation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">it appears as if the final two comparison groups should really be 2016-2020; 2021-2023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>single-parent_households</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of all households that are single parent households.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presumably, the number of households in a county that are headed by a single parent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presumably, the number of households in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on my reading of the documentation, it appears as if this variable is distinct from children_in_single-parent_households. These two variables should not be considered as measuring the same thing. This variable is only available in 2010.</t>
+  </si>
+  <si>
+    <t>social_associations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of membership associations per 10,000 people.</t>
+  </si>
+  <si>
+    <t>ccbp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">census county business patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of membership associations in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total resident population of a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The membership organizations (NAICS code) in this measure include civic organizations (813410), bowling centers (713950), golf clubs (713910), fitness centers (713940), sports organizations (711211), religious organizations (813110), political organizations (813940), labor organizations (813930), business organizations (813910), and professional organizations (813920).</t>
+  </si>
+  <si>
+    <t>injury_deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of deaths due to injury per 100,000 people. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of deaths with an underlying cause of injury (ICD-10 codes *U01-*U03, V01-Y36, Y85-Y87, Y89) during the five-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the aggregate annual population for the five-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with fewer than 10 injury deaths in the time frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This measure includes injuries from intentional causes (such as homicide or suicide) and unintentional causes (such as motor vehicle accidents). It is important to note that deaths are counted in the county of residence of the deceased. So, even in an injury death occurred across the state, the death is counted in the home county of the individual who died.</t>
+  </si>
+  <si>
+    <t>air_pollution_-_particulate_matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average daily density of fine particulate matter in micrograms per cubic meter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC nephtn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDC's National Environmental Public Health Tracking Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data provider has been using the CDC's NEPHTN since 2017. From 2014-2016, the data provider used esimtates from NASA's Applied Sciences Program made available through the CDC's Wonder Environmental Data portal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine particulate matter is defined as particles of air pollutants with an aerodynamic diameter less than 2.5 micrometers (PM2.5). The Air Pollution - Particulate Matter measure is created based on air pollution data from monitors and modeled estimates. The monitoring data comes from the U.S. Environmental Protection Agency Air Quality System (AQS). When AQS data are available from multiple monitors at one site, the maximum daily concentration of PM2.5 is retained. The site-level daily monitoring data is used to create the annual average measures of PM2.5. Only monitors that have at least 11 observations for each of the four calendar quarters are considered complete and annual averages are computed only for monitors that satisfy the completeness criteria. Many U.S. counties do not have sufficient air quality monitoring to derive PM2.5 concentration estimates from monitor data alone. The monitor data are supplemented with modeled estimates of PM2.5 concentrations derived from the Downscaler (DS) model, which uses a statistical approach to fuse monitoring data with Community Multiscale Air Quality modeled outputs. DS modeled estimates are available by census tract centroid—the geographic center of the census tract. Daily county level modeled estimates are obtained by selecting the maximum value among all the census tracts within each county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despite changes in the source of the data, the data provider says this measure can be compared across all years.</t>
+  </si>
+  <si>
+    <t>air_pollution-particulate_matter_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual number of days that the air quality was unhealthy due to fine particulate matter.</t>
+  </si>
+  <si>
+    <t>air_pollution-ozone_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual number of days that the air quality was unhealthy due to ozone.</t>
+  </si>
+  <si>
+    <t>drinking_water_violations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of population exposed to water exceeding a violation limit in the past year.</t>
+  </si>
+  <si>
+    <t>sdwis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe Drinking Water Information System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data provider was advised by local agencies that it is difficult to determine the exact population impacted by any specific violation as water systems have water system partnerships with other jurisdictions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numerator is the total number of people affected by a water violation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of people with access to public water.</t>
+  </si>
+  <si>
+    <t>drinking_water_violations_bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the county level, binary value indicating whether or not the county was exposed to a drinking water violations. 1 = Yes, 0 = No.</t>
+  </si>
+  <si>
+    <t>sdwisfras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe Drinking Water Information System Federal Reports Advanced Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2018, the data source changed to the Safe Drinking Water Information System Federal Reports Advanced Search (from the SDWIS). This was not reflected in any of the individual years' documentation, though.</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I rename this variable for the years 2016-2023 to differentiate it from previous years' measure of drinking_water_violations because previous years measured this variable differently. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall, the data provider does not recommend using this measure to track progress in counties over time. If one does, they recommend the following time comparisons: 2016-2017; 2018-2023.</t>
+  </si>
+  <si>
+    <t>severe_housing_problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of households with at least one of the following four housing problems: overcrowding, high housing costs, lack of kitchen, lack of plumbing.</t>
+  </si>
+  <si>
+    <t>chas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprehensive Housing Affordability Strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of households in a county with at least one of the above housing problems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of households in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incomplete kitchen facilities is defined as a unit which lacks a sink with running water, a stove or range, or a refrigerator. Incomplete plumbing facilities is defined as lacking hot and cold piped water, a flush toilet, or a bathtub/shower. Overcrowding is defined as more than 1 person per room. Severe cost burden is defined as monthly housing costs (including utilities) that exceed 50% of monthly income.</t>
+  </si>
+  <si>
+    <t>percentage_of_households_with_high_housing_costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of households in a county with high housing costs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of households in a county with high housing costs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2019-2023, I recode the stem value to be raw_value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe cost burden is defined as monthly housing costs (including utilities) that exceed 50% of monthly income.</t>
+  </si>
+  <si>
+    <t>percentage_of_households_with_overcrowding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of households in a county with overcrowding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of households in a county with overcrowding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overcrowding is defined as more than 1 person per room.</t>
+  </si>
+  <si>
+    <t>percentage_of_households_with_lack_of_kitchen_or_plumbing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of households in a county with a lack of kitchen or a lack of plumbing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of households in a county with a lack of kitchen or a lack of plumbing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incomplete kitchen facilities is defined as a unit which lacks a sink with running water, a stove or range, or a refrigerator. Incomplete plumbing facilities is defined as lacking hot and cold piped water, a flush toilet, or a bathtub/shower.</t>
+  </si>
+  <si>
+    <t>driving_alone_to_work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of the workforce that drives alone to work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of workers who commute alone to work via car, truck, or van.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total workforce.</t>
+  </si>
+  <si>
+    <t>long_commute_-_driving_alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Among workers who commute in their vehicle alone, the percentage that commute more than 30 minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of workers who drive alone (via car, truck, or van) for more than 30 minutes during their commute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the number of workers who drive alone (via car, truck, or van) during their commute.</t>
+  </si>
+  <si>
+    <t>life_expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average number of years a person can expect to live.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with fewer than 5,000 population-years-at-risk in the time frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaths are counted in the county where the individual lived regardless of where the death occurred.</t>
+  </si>
+  <si>
+    <t>premature_age-adjusted_mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of deaths among residents under age 75 per 100,000 population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of total deaths under the age of 75.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total population under the age of 75.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with fewer than 20 premature deaths in the time frame.</t>
+  </si>
+  <si>
+    <t>child_mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of deaths among children (under age 18) per 100,000 children.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of deaths occurring before the age of 18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total population under the age of 18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with fewer than 10 child deaths in the time frame.</t>
+  </si>
+  <si>
+    <t>infant_mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of infant deaths (within 1 year) per 1000 live births.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the cumulative number of deaths occurring before one year of age.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of live births.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with fewer than 20 infant deaths in the time frame.</t>
+  </si>
+  <si>
+    <t>frequent_physical_distress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults reporting 14 or more days of poor physical health in the past month.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of adults who reported 14 or more days in response to the question, “Now thinking about your physical health, which includes physical illness and injury, for how many days during the past 30 days was your physical health not good?”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2016-2020; 2021-2023.</t>
+  </si>
+  <si>
+    <t>frequent_mental_distress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults reporting 14 or more days of poor mental health in the past month.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of adults who reported 14 or more days in response to the question, “Now, thinking about your mental health, which includes stress, depression, and problems with emotions, for how many days during the past 30 days was your mental health not good?”</t>
+  </si>
+  <si>
+    <t>diabetes_prevalence</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Percentage of adults with diagnosed diabetes. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note there is a discrepancy in the documentation where some sources say everyone 18 and older while other sources say 20 and older</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2011-2012, the listed source was the Small Area Obesity Estimates program. In 2013, the source changed to the National Center for Chronic Disease Prevention and Health Promotion. In 2015, the source changed to the CDC Diabetes Interactive Atlas. In 2020, the source changed to the US Diabetes Surveillance System. In 2022, the source changed to the BRFSS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of adults responded "yes" to the question, "Has a doctor ever told you that you have diabetes?" Both Type 1 and Type 2 diabetes diagnoses are included. Women who indicated that they only had diabetes during pregnancy were not considered to have diabetes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since this is not a ranked measure, the data provider has not provided explicit instructions on which years can be compared. Based on the documentation and looking at the data, I believe the following comparisons could be made: 2011-2021; 2022-2023.</t>
+  </si>
+  <si>
+    <t>hiv_prevalence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of people aged 13 years and older living with a diagnosis of human immunodeficiency virus (HIV) infection per 100,000 population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2016, the listed sourced changed to the National HIV Surveillance system. In 2018, it switched back to the NCHHSTP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of diagnosed cases of HIV for people aged 13 years and older.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total population aged 13 years and older.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with 1 to 4 HIV cases in the time frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV is a reportable disease meaning that when a provider treats a patient for HIV they are required to report that case to their health department. This measure of HIV Prevalence includes all county residents including those living in group quarters such as prisons or on military bases. Some states, when releasing prevalence measures, exclude these populations. Prior to 2020, the variable was defined as the number of positively screened individuals for HIV per 100,000 people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since this is not a ranked measure, the data provider has not provided explicit instructions on which years can be compared. Based on the documentation and looking at the data, I am not sure which years can actually be compared. Descriptively, there is positive, linear growth in this variable at the national level (with a moderate amount of heterogeneoty among states). The only disjuncture comes in 2020 when values spike, but they quickly decline back to normal levels in subsequent years.</t>
+  </si>
+  <si>
+    <t>food_insecurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population who lack adequate access to food.</t>
+  </si>
+  <si>
+    <t>mmg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">map the meal gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the annual USDA Food Security Survey, the Feeding America (Map the Meal Gap) group models the relationship between food insecurity and other variables at the state level. Using information for these variables at the county level, the data providers establish food insecurity by county. The Food Insecurity measure is modeled with the Core Food Insecurity Model which uses information from the Current Population Survey, Bureau of Labor Statistics, and American Community Survey. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the population with a lack of access, at times, to enough food for an active, healthy life or with uncertain availability of nutritionally adequate foods.</t>
+  </si>
+  <si>
+    <t>https://www.feedingamerica.org/research/map-the-meal-gap/how-we-got-the-map-data?s_src=W204DIRCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since this is not a ranked measure, the data provider has not provided explicit instructions on which years can be compared. Based on the documentation, I believe the following comparisons could be made: 2014-2020; 2021-2023. Estimates from 2021 and on account for disability status and have a different definition of poverty.</t>
+  </si>
+  <si>
+    <t>limited_access_to_healthy_foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of the population that is low income and does not live close to a grocery store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usda fea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDA Food Environmental Atlas</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The Food Environmental Atlas assembles statistics on three broad categories of food environment factors: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Food Choices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Indicators of the community's access to and acquisition of healthy, affordable food (such as access and proximity to a grocery store, number of foodstores and restaurants, expenditures on fast foods, food and nutrition assistance program participation, food prices, food taxes, and availability of local foods). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Health and Well-Being</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Indicators of the community's success in maintaining healthy diet. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Community Characteristics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Indicators of community characteristics that might influence the food environment such as demographic composition, income and poverty, population loss, metro-nonmetro status, natural amenities, and recreation and fitness centers.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of people who are low income and do not live close to a grocery store.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the 2010 U.S. census population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living close to a grocery store is defined differently in rural and nonrural areas; in rural areas, it means living less than 10 miles from a grocery store; in nonrural areas, less than one mile. Low income is defined as having an annual family income of less than or equal to 200 percent of the federal poverty threshold for the family size.</t>
+  </si>
+  <si>
+    <t>drug_overdose_deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of drug poisoning deaths per 100,000 population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">he numerator includes deaths from accidental, intentional, and undetermined drug poisoning by and exposure to: 1) nonopioid analgesics, antipyretics and antirheumatics, 2) antiepileptic, sedative-hypnotic, antiparkinsonism and psychotropic drugs, not elsewhere classified, 3) narcotics and psychodysleptics (hallucinogens), not elsewhere classified, 4) other drugs acting on the autonomic nervous system, and 5) other and unspecified drugs, medicaments and biological substances, over a 3-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the aggregate annual population over the 3-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with fewer than 10 drug poisoning deaths in the time frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deaths are counted in the county where the individual lived regardless of where the death occurred. ICD-10 codes used include X40-X44, X60-X64, X85, and Y10-Y14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It appears as if this variable can be compared across time. However, it is unclear if this variable is different from drug_poisoning_deaths. If they are not different, the two could be combined. From the documentation, it cannot be determined if the variables are different, though.</t>
+  </si>
+  <si>
+    <t>drug_overdose_deaths_-_modeled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No documentation available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the county level, values correspond to numeric codes which reflect modeled interval rates of drug overdose deaths per 100,000 people. The numeric codes for 2016 are as follows:1 (0 - 2); 2 (2.1 - 4); 3 (4.1 - 6); 4 (6.1 - 8); 5 (8.1 - 10); 6 (10.1 - 12); 7 (12.1 - 14); 8 (14.1 - 16); 9 (16.1 - 18); 10 (18.1 - 20); 11 (&gt; 20). The numeric codes for 2018 are as follows: 1 (0 - 1.99), 2 (2 - 3.9), 3 (4 - 5.9), 4 (6 - 7.9), 5 (8 - 11.9), 6 (12 - 13.9), 7 (14 - 15.9), 8 (16 - 17.9), 9 (18 - 19.9), 10 (20 - 21.9), 11 (22, 23.9), 12 (24 - 25.9), 13 (26 - 27.9), 14 (28 - 29.9) 15 (&gt; 30).</t>
+  </si>
+  <si>
+    <t>drug_poisoning_deaths</t>
+  </si>
+  <si>
+    <t>uninsured_adults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of the population ages 18 to 64 that have no health insurance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of people ages 18 to 64 who currently have no health insurance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County population ages 18 to 64.</t>
+  </si>
+  <si>
+    <t>uninsured_children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of the population under age 19 that has no health insurance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of people under age 19 who currently have no health insurance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County population under age 19.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -638,6 +1430,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -660,7 +1458,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -679,6 +1477,9 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,23 +1995,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="29.421875"/>
-    <col customWidth="1" min="2" max="2" style="1" width="31.421875"/>
-    <col bestFit="1" min="3" max="3" style="1" width="7.3828125"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="55.00390625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="33.28125"/>
+    <col customWidth="1" min="3" max="3" style="1" width="9.00390625"/>
     <col customWidth="1" min="4" max="4" style="1" width="17.00390625"/>
     <col customWidth="1" min="5" max="6" style="1" width="48.57421875"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="1" width="28.57421875"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" style="1" width="18.57421875"/>
-    <col bestFit="1" customWidth="1" min="9" max="9" style="2" width="12.4140625"/>
-    <col bestFit="1" min="10" max="10" style="2" width="8.421875"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" style="1" width="7.421875"/>
-    <col customWidth="1" min="12" max="12" style="1" width="42.8515625"/>
-    <col customWidth="1" min="13" max="13" style="1" width="48.8515625"/>
-    <col customWidth="1" min="14" max="14" style="1" width="70.00390625"/>
-    <col customWidth="1" min="15" max="15" width="70.00390625"/>
-    <col bestFit="1" customWidth="1" min="16" max="16" width="13.28125"/>
-    <col bestFit="1" customWidth="1" min="17" max="17" width="53.28125"/>
-    <col min="18" max="16384" style="1" width="9.140625"/>
+    <col customWidth="1" min="7" max="7" style="1" width="46.8515625"/>
+    <col customWidth="1" min="8" max="8" style="1" width="22.57421875"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" style="2" width="18.28125"/>
+    <col customWidth="1" min="10" max="10" style="1" width="16.8515625"/>
+    <col customWidth="1" min="11" max="11" style="1" width="45.28125"/>
+    <col customWidth="1" min="12" max="12" style="1" width="48.8515625"/>
+    <col customWidth="1" min="13" max="13" style="1" width="70.00390625"/>
+    <col customWidth="1" min="14" max="14" style="1" width="86.421875"/>
+    <col customWidth="1" min="15" max="15" style="2" width="17.8515625"/>
+    <col customWidth="1" min="16" max="16" style="1" width="55.7109375"/>
+    <col min="17" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="14.25">
@@ -1241,7 +2041,7 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -1259,870 +2059,810 @@
       <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="114">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="5"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
     </row>
     <row r="3" ht="285">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
     </row>
     <row r="4" ht="285">
       <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="5" ht="285">
       <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
     </row>
     <row r="6" ht="114">
       <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="2">
-        <v>0</v>
+      <c r="J6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="S6" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" ht="285">
       <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="8" ht="213.75">
       <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>63</v>
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" ht="299.25">
       <c r="A9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="N9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="10" ht="185.25">
       <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>79</v>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" ht="171">
       <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="O11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" ht="285">
       <c r="A12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>92</v>
+      <c r="P12" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" ht="128.25">
       <c r="A13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
     </row>
     <row r="14" ht="114">
       <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="5"/>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" ht="71.25">
       <c r="A15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
       </c>
-      <c r="J15" s="2">
-        <v>0</v>
+      <c r="J15" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="5"/>
+      <c r="O15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="1"/>
     </row>
     <row r="16" ht="114">
       <c r="A16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
       </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>24</v>
+      <c r="J16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="O16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" ht="42.75">
+      <c r="A17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" ht="57">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="5"/>
+      <c r="J17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" ht="213.75">
       <c r="A18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="2">
-        <v>0</v>
+      <c r="J18" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5" t="s">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q18" s="5" t="s">
+      <c r="O18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" ht="156.75">
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" ht="128.25">
       <c r="A19" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="2">
-        <v>0</v>
+      <c r="J19" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="L19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="N19" s="5"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="O19" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" ht="171">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="1" t="s">
         <v>150</v>
       </c>
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L20" s="5" t="s">
+      <c r="J20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q20" s="5" t="s">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="S20" s="1"/>
+      <c r="R20" s="1"/>
     </row>
     <row r="21" ht="270.75">
       <c r="A21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2131,43 +2871,1436 @@
       <c r="D21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="1" t="s">
         <v>160</v>
       </c>
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" ht="142.5">
+      <c r="A22" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" ht="85.5">
+      <c r="A23" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>164</v>
+      <c r="J23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="N23" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" ht="57">
+      <c r="A24" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="O24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" ht="85.5">
+      <c r="A25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="N25" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" ht="57">
+      <c r="A26" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="O26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" ht="42.75">
+      <c r="A27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" ht="199.5">
+      <c r="A28" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" ht="71.25">
+      <c r="A29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" ht="142.5">
+      <c r="A30" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" ht="57">
+      <c r="A31" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" ht="213.75">
+      <c r="A32" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" ht="57">
+      <c r="A33" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" ht="57">
+      <c r="A34" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" ht="114">
+      <c r="A35" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="213.75">
+      <c r="A36" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" ht="57">
+      <c r="A37" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" ht="57">
+      <c r="A38" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" ht="57">
+      <c r="A39" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" ht="71.25">
+      <c r="A40" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" ht="71.25">
+      <c r="A41" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" ht="57">
+      <c r="A42" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" ht="57">
+      <c r="A43" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" ht="57">
+      <c r="A44" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" ht="28.5">
+      <c r="A45" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" ht="71.25">
+      <c r="A46" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" ht="114">
+      <c r="A47" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" ht="114">
+      <c r="A48" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" ht="114">
+      <c r="A49" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" ht="114">
+      <c r="A50" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="O50" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" ht="285">
+      <c r="A51" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="52" ht="285">
+      <c r="A52" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" ht="285">
+      <c r="A53" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" ht="114">
+      <c r="A54" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" ht="142.5">
+      <c r="A55" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" ht="213.75">
+      <c r="A56" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O56" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" ht="142.5">
+      <c r="A57" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" ht="85.5">
+      <c r="A58" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" ht="57">
+      <c r="A59" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" ht="42.75">
+      <c r="A60" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="I60" s="2">
+        <v>0</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" ht="42.75">
+      <c r="A61" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="N55"/>
+  </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/health_data/src/my_dictionary_v2.xlsx
+++ b/health_data/src/my_dictionary_v2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
   <si>
     <t>variable</t>
   </si>
@@ -582,10 +582,10 @@
     <t xml:space="preserve">I recode the ratio_of_population_to_dentists to this variable and changed the stem value to ratio from 2012-2023.</t>
   </si>
   <si>
-    <t xml:space="preserve">A missing value is reported for counties with population greater than 4,000 and 0 dentists. Concerning the ratio variable, "When a county has no reported providers, the value for the ratio variable is assigned to be the negative population value. This means for counties with zero providers, the value is stored as a negative number (e.g., if the ratio is 2000:0, the value stored in the field would be -2000.)" The data providers found an error in the calculation of population to provider ratios for dentists in 2013 and 2014. They double-counted people living in group quarters (like dorms or prisons) in each county. Presumably, the data from their website is up-to-date.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data provider states that this measure can be compared across all time periods available. This variable did not become part of the rankings until 2013, but presumably the 2012 release is compatible with the newer releases.</t>
+    <t xml:space="preserve">A missing value is reported for counties with population greater than 4,000 and 0 dentists. Concerning the ratio variable, "When a county has no reported providers, the value for the ratio variable is assigned to be the negative population value. This means for counties with zero providers, the value is stored as a negative number (e.g., if the ratio is 2000:0, the value stored in the field would be -2000.)" The data providers found an error in the calculation of population to provider ratios for dentists in 2013 and 2014. They double-counted people living in group quarters (like dorms or prisons) in each county. I believe the data from their website is up-to-date.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider states that this measure can be compared across all time periods available. This variable did not become part of the rankings until 2013, but presumably the 2012 release is compatible with the newer releases (although no documentation officially states so).</t>
   </si>
   <si>
     <t>mental_health_providers</t>
@@ -889,10 +889,10 @@
     <t xml:space="preserve">Percentage of all households that are single parent households.</t>
   </si>
   <si>
-    <t xml:space="preserve">Presumably, the number of households in a county that are headed by a single parent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presumably, the number of households in a county.</t>
+    <t xml:space="preserve">Presumably, the number of households in a county that are headed by a single parent, but there is no concrete documentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presumably, the number of households in a county, but there is no concrete documentation.</t>
   </si>
   <si>
     <t xml:space="preserve">Based on my reading of the documentation, it appears as if this variable is distinct from children_in_single-parent_households. These two variables should not be considered as measuring the same thing. This variable is only available in 2010.</t>
@@ -1412,6 +1412,402 @@
   <si>
     <t xml:space="preserve">County population under age 19.</t>
   </si>
+  <si>
+    <t>other_primary_care_providers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of primary care providers other than physicians per person. Ratio value is the number of people per primary care provider other than physicians. It should be noted that the documentation states it is the number of doctors per 100,000 people, but it is actually the number of doctors per 1 person.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When calculating the rate, the numerator is the number of primary care providers other than physicians. When calculating the ratio, the numerator (or left-hand side) is the total county population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When calculating the rate, the denominator is the total county population. When calculating the ratio, the denominator (or right-hand side), is the number of primary care providers other than physicians,.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recode the ratio_of_population_to_primary_care_providers_other_than_physicians to this variable and changed the stem value to ratio for years 2014-2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with population greater than 4,000 and 0 other primary care providers. Concerning the ratio variable, "When a county has no reported providers, the value for the ratio variable is assigned to be the negative population value. This means for  counties with zero providers, the value is stored as a negative number (e.g., if the ratio is 2000:0, the value stored in the field would be -2000.)"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other primary care providers other than physicians include nurse practitioners (NP), physician assistants (PA), and clinical nurse specialists. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider does not recommend using this data to track progress due to concerns that many providers are no longer practicing but are not delisted from the directory. Additionally, the data provider discovered an error in their estimates from 2014-2016 where organizations were being counted alongside individual providers. The corrected estimates were provided in 2015 and 2016 but not 2014. Thus, there are no estimates available for 2014. If one truly wishes to make cross-time comparisons, it appears as if one should use 2015-2023.</t>
+  </si>
+  <si>
+    <t>high_school_graduation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of ninth-grade cohort that graduates in four years.</t>
+  </si>
+  <si>
+    <t>edfacts</t>
+  </si>
+  <si>
+    <t>EDFacts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginning with the 2010-2011 school-year, states have been required to submit cohort graduation rates to the federal government. These data have been made available to the public on EDFacts. Adjusted Cohort Graduation Rates at the Local Education Agency (school district) level from EDFacts data were used for all states except Hawaii, where school level data were used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2010-2013, the main source of the data appears to be the National Center for Education Statistics with state data supplementing the national-level data (State data sources used for Kentucky, New Hampshire, North Carolina, Pennsylvania, South Carolina, and Utah for the years 2010 and 2011. State data sources used for Alaska, Alabama, Arkansas, California, Connecticut, Florida, Hawaii, Idaho, Kentucky, Montana, North Dakota, New Jersey, Oklahoma, South Dakota, and Tennessee in 2012. Unclear in 2013 which states use which data source). Starting in 2014, they say NCES data is used to supplement data from data.gov. Starting in 2016, the listed source is EDFacts. Starting in 2019, the listed source is EDFacts and state sources. Starting in 2021, the listed source is only EDFacts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of cohort members who earned a regular high school diploma by the end of the school year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the number of first-time 9th graders four years prior to graduation, plus students who transferred in, minus students who transferred out, emigrated, or died during school years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are differences across states and even schools in determining whether a student is a transfer or a dropout, and this can substantially affect graduation rates because dropouts are still included in a graduation cohort, but transfers are not. Second, there are different rules applied to certain student groups (e.g., incarcerated students, special needs students) at some schools. For instance, they may be excluded from the cohort, included in the cohort but given longer to graduate, or included in the cohort with no special considerations. Third, some states include online schools, but students do not necessarily reside in the same county as the online school’s mailing address, so there are problems with assigning an online school to a specific county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider does not recommend using this data to track progress. Constant changes in the data source combined with different definitions of the variable across states (even for schools within the same state) make comparisons hard. If one wishes to compare across time, the data provider recommends the following time comparisons: 2010; 2011; 2012-2013; 2014-2018; 2019; 2020; 2021-2023. In particular, the data provider notes that in 2019 the priority was to use state-specific sources for states that had a large number of missing counties in the national-level data. Moving forward, the data provider tried to rely less upon state-level sources and only use the national-level data. When making cross-time comparisons, one should strive to ensure the data sources are the same for all observations.</t>
+  </si>
+  <si>
+    <t>disconnected_youth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of people ages 16-19 who are neither working nor in school.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2019, the source changes from Measure of America to the American Community Survey. The definition also changed from people ages 16-24 to people ages 16-19. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of people, ages 16-19, who are neither working nor in school.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total county population, ages 16-19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider recommends the following time comparisons: 2017-2018; 2019-2023.</t>
+  </si>
+  <si>
+    <t>reading_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average grade level performance for 3rd graders on English Language Arts standardized tests.</t>
+  </si>
+  <si>
+    <t>seda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanford data education archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Stanford Data Education Archive uses data from EDFacts and states sources to produce stable estimates of educational performance across states.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading Scores is the average grade level performance in the county for 3rd graders on English Language Arts standardized tests. For example, a score of 3.5 indicates that the 3rd graders are performing half a grade level better than expected for 3rd graders. </t>
+  </si>
+  <si>
+    <t>math_scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average grade level performance for 3rd graders on math standardized tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math Scores is the average grade level performance in the county for 3rd graders on math standardized tests. For example, a score of 3.5 indicates that the 3rd graders are performing half a grade level better than expected for 3rd graders. </t>
+  </si>
+  <si>
+    <t>school_segregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The extent to which students within different race and ethnicity groups are unevenly distributed across schools when compared with the racial and ethnic composition of the local population.</t>
+  </si>
+  <si>
+    <t>nces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">national center for education statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An estimate is only provided when at least two of the race-ethnicity categories have 25 or more students in at least one school in a given county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School segregation is measured using Thell's index which ranges from 0 to 1 with lower values representing a school composition that approximates race and ethnicity distributions in the student populations within the county and higher values representing more segregation. Data is not collected on private schools.</t>
+  </si>
+  <si>
+    <t>school_funding_adequacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The average gap in dollars between actual and required spending per pupil among public school districts. Required spending is an estimate of dollars needed to achieve U.S. average test scores in each district.</t>
+  </si>
+  <si>
+    <t>sfid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school finance indicators database</t>
+  </si>
+  <si>
+    <t>gender_pay_gap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ratio of women's median earnings to men's median earnings for all full-time, year-round workers, presented as cents on the dollar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is women's median annual earnings for full-time, year-round workers ages 16 and older with earnings in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is men's median annual earnings for full-time, year-round workers ages 16 and older with earnings in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cents on the dollars means women's median earnings are compared in cents to every dollar (100 cents) of men's median earnings. The ACS uses a binary representation of gender and thus does not capture people living intersectional identities.</t>
+  </si>
+  <si>
+    <t>median_household_income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median household income.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median income by race uses the ACS rather than the SAIPE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income, defined as total income, is the sum of the amounts reported separately for: wage or salary income; net self-employment income; interest, dividends, or net rental or royalty income or income from estates and trusts; Social Security or Railroad Retirement income; Supplemental Security Income (SSI); public assistance or welfare payments; retirement, survivor, or disability pensions; and all other income. Receipts from the following sources are not included as income: capital gains; money received from the sale of property (unless the recipient was engaged in the business of selling such property); the value of income in kind from food stamps, public housing subsidies, medical care, employer contributions for individuals, etc.; withdrawal of bank deposits; money borrowed; tax refunds; exchange of money between relatives living in the same household; and gifts and lump-sum inheritances, insurance payments, and other types of lump-sum receipts.</t>
+  </si>
+  <si>
+    <t>living_wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living wage is the hourly wage needed to cover basic household expenses plus all relevant taxes for a household of one adult and two children.</t>
+  </si>
+  <si>
+    <t>lwc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living wage calculator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This living wage estimate is calculated by Dr. Amy Glasmeier and colleagues at the Massachusetts Institute of Technology for twelve different household compositions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living wage represents the minimum income necessary for financial independence to meet the basic needs of an individual or family without requiring public assistance in the form of income-conditioned benefits like the Supplemental Nutrition Assistance Program (SNAP), Supplemental Security Income (SSI), Earned Income Tax Credit (EITC), and Temporary Assistance for Needy Families (TANF). The Living Wage measure specifically accounts for basic household needs, including food, child care, health care, housing, transportation, and other necessities such as clothing, broadband service, and cell phone service. The costs of many elements of the basic needs budget are based on market-derived data which vary according to geographic region.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Childcare cost data are based on market-rate surveys reported separately by state, published in different years. Some states only report state or region-level estimates, and thus require county-level imputation. Due to this, states may differ in the extent to which estimates are modeled vs. observed. I think, primarily for this reason, the data provider suggests caution when comparing this data across time as well across states.</t>
+  </si>
+  <si>
+    <t>children_eligible_for_free_lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of children in public schools eligible for free lunch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2011-2012, some documentation lists the source as the USDA Food Environmental Atlas while other documentation lists the source as the National Center for Education Statistics. From 2013-2016, the only  listed data source is the National Center for Education Statistics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of public school students, grades PK-12, eligible for free lunch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total number of students enrolled in public schools, grades PK-12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children eligible for free lunch live in a family with income less than 130% of the federal poverty level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is some discrepancy in the documentation concerning the source of the data. This makes it hard to say which years can be compared with which other years.</t>
+  </si>
+  <si>
+    <t>children_eligible_for_free_or_reduced_price_lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of children enrolled in public schools that are eligible for free or reduced price lunch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting in 2017, this measure replaced children_eligible_for_free_lunch by including children eligible for reduced price lunch in the numerator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of public school students, grades PK-12, eligible for free or reduced price lunch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children eligible for free lunch live in a family with income less than 130% of the federal poverty level, while children eligible for reduced price lunch live in a family with income less than 185% of the federal poverty level.</t>
+  </si>
+  <si>
+    <t>residential_segregation_-_black/white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index of dissimilarity where higher values indicate greater residential segregation between Black and White county residents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with a Black population of less than 100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The degree to which two or more groups live separately from one another in a geographic area. The index of dissimiliarity is a measure of evenness with which two groups are distributed across component geographic areas (census tracts in this case) that make up a larger areas (counties in this case).</t>
+  </si>
+  <si>
+    <t>residential_segregation_-_non-white/white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index of dissimilarity where higher values indicate greater residential segregation between non-White and White county residents.</t>
+  </si>
+  <si>
+    <t>childcare_cost_burden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Childcare costs for a household with two children as a percent of median household income.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lwc; saipe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">living wage calculator; small area income and poverty estimates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child care cost data provided by the Living Wage Calculator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median household income data calculated from the Small Area Income and Poverty Estimates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Living Wage Calculator established child care costs for each county based on market rate surveys published by each state, databases of local providers, and by contacting providers in a state directly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Childcare cost data are based on market-rate surveys reported separately by state, published in different years. Some states only report state or region-level estimates, and thus require county-level imputation. Due to this, states may differ in the extent to which estimates are modeled vs. observed. Additionally, the estimate of child care costs have been adjusted to reflect inflation. For both of these reasons, the data provider does not recommend comparing these estimates across year (and also warn of the difficulties of making cross-state comparisons as well).</t>
+  </si>
+  <si>
+    <t>childcare_centers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of childcare centers per 1,000 population under 5 years old. </t>
+  </si>
+  <si>
+    <t>hifld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homeland Infrastructure Foundation-Level Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of child care centers in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total resident population under 5 years old in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dataset only includes center based child day care locations (including those located at schools and religious institutes) and does not include group, home, and family based child day cares. All the data was acquired from respective states departments or their open source websites and only contains data provided by these sources. Child care centers are regulated by state licensing. Definitions of childcare facilities vary by state making comparisons across states difficult. Data were acquired from respective state's departments and therefore may be subject to reporting differences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data provider does not give any warnings when comparing across time, but they do give a strong warning when comparing across states. See the note in variable_definitions.</t>
+  </si>
+  <si>
+    <t>homicides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of homicides per 100,000 population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of deaths in a county over the 7-year period due to homicide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the aggregate county population over the 7-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with fewer than 10 homicide deaths in the time frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is important to note that deaths are counted in the county of residence of the deceased. So, even if a homicide occurred across the state, the death is counted in the home county of the individual who died. Homicides are defined by ICD-10 codes X85-Y09 (assault).</t>
+  </si>
+  <si>
+    <t>suicides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of suicides per 100,000 population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of deaths in a county over the 5-year period due to suicide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the aggregate county population over the 5-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with fewer than 10 suicide deaths in the time frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is important to note that deaths are counted in the county of residence of the deceased. So, even if a suicide occurred across the state, the death is counted in the home county of the individual who died. Suicides are defined by the ICD 10 codes X60-X84 (self-harm).</t>
+  </si>
+  <si>
+    <t>firearm_fatalities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of deaths due to firearms per 100,000 population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of deaths in a county over the 5-year period due to firearms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the aggregate annual population over the 5-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with fewer than 10 firearm fatalities in the time frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is important to note that deaths are counted in the county of residence of the deceased. So, even if a firearm death occurred across the state, the death is counted in the home county of the individual who died. A firearm death is defined ICD-10 codes W32-W34, X72-X74, X93-X95, Y22-Y24, and Y35.0.</t>
+  </si>
+  <si>
+    <t>motor_vehicle_crash_deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of motor vehicle crash deaths per 100,000 population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior to the 2013 County Health Rankings, non-traffic motor vehicle accidents were included in the definition of Motor Vehicle Crash Deaths. Starting in 2013, the County Health Rankings changed the definition of Motor Vehicle Crash Deaths to exclude non-traffic accidents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of deaths due to motor vehicle crashses over the 7-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the aggregate annual population over the 7-year period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported for counties with fewer than 10 motor vehicle crash deaths in the time frame.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is important to note that deaths are counted in the county of residence of the deceased. So, even if a motor vehicle crash death occurred across the state, the death is counted in the home county of the individual who died. Motor vehicle crash deaths include traffic accident deaths which involve motorcycles, 3-wheel motor vehicles, cars, vans, trucks, buses, street cars, ATVs, industrial, agricultural, and construction vehicles, and bicyclists or pedestrians when colliding with any of these vehicles (ICD10 codes: V02-V04 (.1, .9), V09.2, V12-V14 (.3-.9), V19 (.4-.6), V20-V28 (.3-.9), V29-V79 (.4-.9), V80 (.3-.5), V81.1, V82.1, V83-V86 (.0-.3), V87 (.0-.8), and V89.2). Deaths due to boating accidents and airline crashes are not included in the numerator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data provider does not give any specific instructions probably because this variable is not used in the rankings. However, I would recommend the following year comparisons: 2010-2012; 2013-2023.</t>
+  </si>
+  <si>
+    <t>juvenile_arrests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of delinquency cases per 1,000 juveniles. </t>
+  </si>
+  <si>
+    <t>ezaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easy access to state and county juvenile court case counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of delinquency cases formally processed in juvenile court (petitioned) and the number of delinquency cases informally handled (non-petitioned) for individuals ages 0 to the upper age of jurisdiction for a juvenile court. It is important to note that the numerator is cases and not offenders as a juvenile could have multiple delinquency violations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the population ages 10 to the upper age of jurisdiction. The population value is rounded to the nearest 100. The age range of 10 to upper age is used because nearly all juvenile arrests occur among those who are 10 and older nation-wide (citation from 2019).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Crimes are counted in the court jurisdiction where they occur rather than the residence of the juvenile. The upper age in which a juvenile court has jurisdiction is 17 for all states except for New York (15 years) and Georgia, Missouri, Texas, and Wisconsin (16 years). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">North Carolina? Missing?</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1472,14 +1868,14 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1997,18 +2393,18 @@
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="55.00390625"/>
     <col customWidth="1" min="2" max="2" style="1" width="33.28125"/>
-    <col customWidth="1" min="3" max="3" style="1" width="9.00390625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="10.00390625"/>
     <col customWidth="1" min="4" max="4" style="1" width="17.00390625"/>
     <col customWidth="1" min="5" max="6" style="1" width="48.57421875"/>
-    <col customWidth="1" min="7" max="7" style="1" width="46.8515625"/>
-    <col customWidth="1" min="8" max="8" style="1" width="22.57421875"/>
+    <col customWidth="1" min="7" max="7" style="1" width="48.00390625"/>
+    <col customWidth="1" min="8" max="8" style="1" width="34.140625"/>
     <col bestFit="1" customWidth="1" min="9" max="9" style="2" width="18.28125"/>
     <col customWidth="1" min="10" max="10" style="1" width="16.8515625"/>
     <col customWidth="1" min="11" max="11" style="1" width="45.28125"/>
-    <col customWidth="1" min="12" max="12" style="1" width="48.8515625"/>
+    <col customWidth="1" min="12" max="12" style="1" width="58.8515625"/>
     <col customWidth="1" min="13" max="13" style="1" width="70.00390625"/>
     <col customWidth="1" min="14" max="14" style="1" width="86.421875"/>
-    <col customWidth="1" min="15" max="15" style="2" width="17.8515625"/>
+    <col customWidth="1" min="15" max="15" style="1" width="17.8515625"/>
     <col customWidth="1" min="16" max="16" style="1" width="55.7109375"/>
     <col min="17" max="16384" style="1" width="9.140625"/>
   </cols>
@@ -2056,7 +2452,7 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
@@ -2372,13 +2768,13 @@
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F9" s="1"/>
@@ -2746,7 +3142,7 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -2793,7 +3189,7 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -2839,7 +3235,7 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -2884,7 +3280,7 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -2904,11 +3300,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" ht="142.5">
-      <c r="A22" s="6" t="s">
+    <row r="22" ht="114">
+      <c r="A22" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -2917,41 +3313,41 @@
       <c r="D22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I22" s="2">
         <v>1</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="1" t="s">
         <v>172</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="1" t="s">
         <v>174</v>
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" ht="85.5">
-      <c r="A23" s="6" t="s">
+    <row r="23" ht="71.25">
+      <c r="A23" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2960,29 +3356,29 @@
       <c r="D23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="1" t="s">
         <v>179</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="1" t="s">
         <v>180</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="O23" s="6" t="s">
+      <c r="O23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P23" s="1"/>
@@ -2991,10 +3387,10 @@
       <c r="A24" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>184</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3003,29 +3399,29 @@
       <c r="F24" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" ht="85.5">
+    <row r="25" ht="57">
       <c r="A25" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>189</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3034,41 +3430,41 @@
       <c r="D25" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="1" t="s">
         <v>191</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K25" s="1"/>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="O25" s="6" t="s">
+      <c r="O25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" ht="57">
+    <row r="26" ht="42.75">
       <c r="A26" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="1" t="s">
         <v>197</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -3077,11 +3473,11 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K26" s="1"/>
-      <c r="O26" s="6" t="s">
+      <c r="O26" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P26" s="1"/>
@@ -3099,31 +3495,31 @@
       <c r="D27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="1" t="s">
         <v>202</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P27" s="1"/>
     </row>
     <row r="28" ht="199.5">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="1" t="s">
         <v>205</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3132,22 +3528,22 @@
       <c r="D28" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="1" t="s">
         <v>209</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="O28" s="6" t="s">
+      <c r="O28" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3155,19 +3551,19 @@
       <c r="A29" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="1" t="s">
         <v>216</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -3176,13 +3572,13 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="O29" s="6" t="s">
+      <c r="O29" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3199,25 +3595,25 @@
       <c r="D30" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="1" t="s">
         <v>223</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="O30" s="6" t="s">
+      <c r="O30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3237,13 +3633,13 @@
       <c r="I31" s="2">
         <v>0</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="1" t="s">
         <v>224</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="O31" s="6" t="s">
+      <c r="O31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P31" s="1" t="s">
@@ -3254,7 +3650,7 @@
       <c r="A32" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3263,7 +3659,7 @@
       <c r="D32" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="1" t="s">
         <v>233</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -3272,16 +3668,16 @@
       <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="O32" s="6" t="s">
+      <c r="O32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="P32" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3298,19 +3694,19 @@
       <c r="D33" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="1" t="s">
         <v>240</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O33" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P33" s="1" t="s">
@@ -3321,7 +3717,7 @@
       <c r="A34" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3339,13 +3735,13 @@
       <c r="I34" s="2">
         <v>0</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O34" s="6" t="s">
+      <c r="O34" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3353,10 +3749,10 @@
       <c r="A35" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3368,22 +3764,22 @@
       <c r="G35" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="1" t="s">
         <v>252</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="O35" s="6" t="s">
+      <c r="O35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3391,37 +3787,37 @@
       <c r="A36" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="O36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P36" s="1" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3432,7 +3828,7 @@
       <c r="B37" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3447,10 +3843,10 @@
       <c r="I37" s="2">
         <v>0</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O37" s="6" t="s">
+      <c r="O37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3458,7 +3854,7 @@
       <c r="A38" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="1" t="s">
         <v>265</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3476,10 +3872,10 @@
       <c r="I38" s="2">
         <v>0</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3496,7 +3892,7 @@
       <c r="D39" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="1" t="s">
         <v>270</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -3508,10 +3904,10 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="O39" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3522,34 +3918,34 @@
       <c r="B40" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="1" t="s">
         <v>278</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="O40" s="6" t="s">
+      <c r="O40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P40" s="5" t="s">
+      <c r="P40" s="1" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3575,13 +3971,13 @@
       <c r="I41" s="2">
         <v>0</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="O41" s="6" t="s">
+      <c r="O41" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3589,7 +3985,7 @@
       <c r="A42" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -3598,7 +3994,7 @@
       <c r="D42" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="1" t="s">
         <v>290</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -3613,10 +4009,10 @@
       <c r="K42" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O42" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3624,7 +4020,7 @@
       <c r="A43" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="1" t="s">
         <v>294</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -3633,7 +4029,7 @@
       <c r="D43" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="1" t="s">
         <v>295</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -3648,10 +4044,10 @@
       <c r="K43" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3659,7 +4055,7 @@
       <c r="A44" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="1" t="s">
         <v>298</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -3668,7 +4064,7 @@
       <c r="D44" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="1" t="s">
         <v>299</v>
       </c>
       <c r="H44" s="1" t="s">
@@ -3686,7 +4082,7 @@
       <c r="N44" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3694,7 +4090,7 @@
       <c r="A45" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="1" t="s">
         <v>302</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -3712,18 +4108,18 @@
       <c r="I45" s="2">
         <v>0</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O45" s="6" t="s">
+      <c r="O45" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" ht="71.25">
+    <row r="46" ht="42.75">
       <c r="A46" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="1" t="s">
         <v>306</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -3741,10 +4137,10 @@
       <c r="I46" s="2">
         <v>0</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O46" s="6" t="s">
+      <c r="O46" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3764,25 +4160,25 @@
       <c r="E47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I47" s="2">
         <v>1</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="O47" s="6" t="s">
+      <c r="O47" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3790,7 +4186,7 @@
       <c r="A48" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="1" t="s">
         <v>314</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -3811,16 +4207,16 @@
       <c r="I48" s="2">
         <v>1</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="O48" s="6" t="s">
+      <c r="O48" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3828,7 +4224,7 @@
       <c r="A49" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3849,7 +4245,7 @@
       <c r="I49" s="2">
         <v>0</v>
       </c>
-      <c r="J49" s="5" t="s">
+      <c r="J49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="1" t="s">
@@ -3858,7 +4254,7 @@
       <c r="N49" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="O49" s="6" t="s">
+      <c r="O49" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3887,16 +4283,16 @@
       <c r="I50" s="2">
         <v>0</v>
       </c>
-      <c r="J50" s="5" t="s">
+      <c r="J50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="L50" s="1" t="s">
         <v>327</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="O50" s="6" t="s">
+      <c r="O50" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3904,7 +4300,7 @@
       <c r="A51" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3925,16 +4321,16 @@
       <c r="I51" s="2">
         <v>1</v>
       </c>
-      <c r="J51" s="5" t="s">
+      <c r="J51" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="6" t="s">
+      <c r="O51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P51" s="5" t="s">
+      <c r="P51" s="1" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3942,7 +4338,7 @@
       <c r="A52" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -3954,7 +4350,7 @@
       <c r="E52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="1" t="s">
         <v>334</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -3963,13 +4359,13 @@
       <c r="I52" s="2">
         <v>1</v>
       </c>
-      <c r="J52" s="5" t="s">
+      <c r="J52" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="O52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P52" s="1" t="s">
@@ -3980,7 +4376,7 @@
       <c r="A53" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="1" t="s">
         <v>336</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3992,28 +4388,28 @@
       <c r="E53" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I53" s="2">
         <v>1</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="1" t="s">
         <v>33</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O53" s="6" t="s">
+      <c r="O53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P53" s="5" t="s">
+      <c r="P53" s="1" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4030,7 +4426,7 @@
       <c r="D54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="1" t="s">
         <v>342</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -4042,19 +4438,19 @@
       <c r="I54" s="2">
         <v>0</v>
       </c>
-      <c r="J54" s="5" t="s">
+      <c r="J54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="N54" s="5" t="s">
+      <c r="N54" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="O54" s="6" t="s">
+      <c r="O54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P54" s="5" t="s">
+      <c r="P54" s="1" t="s">
         <v>347</v>
       </c>
     </row>
@@ -4071,7 +4467,7 @@
       <c r="D55" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="1" t="s">
         <v>352</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -4083,16 +4479,16 @@
       <c r="I55" s="2">
         <v>0</v>
       </c>
-      <c r="J55" s="5" t="s">
+      <c r="J55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N55" s="7" t="s">
+      <c r="N55" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="O55" s="6" t="s">
+      <c r="O55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P55" s="5" t="s">
+      <c r="P55" s="1" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4100,7 +4496,7 @@
       <c r="A56" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="1" t="s">
         <v>357</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4109,10 +4505,10 @@
       <c r="D56" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="1" t="s">
         <v>361</v>
       </c>
       <c r="H56" s="1" t="s">
@@ -4121,13 +4517,13 @@
       <c r="I56" s="2">
         <v>0</v>
       </c>
-      <c r="J56" s="5" t="s">
+      <c r="J56" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="O56" s="6" t="s">
+      <c r="O56" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4147,7 +4543,7 @@
       <c r="E57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="1" t="s">
         <v>366</v>
       </c>
       <c r="H57" s="1" t="s">
@@ -4156,19 +4552,19 @@
       <c r="I57" s="2">
         <v>0</v>
       </c>
-      <c r="J57" s="5" t="s">
+      <c r="J57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="N57" s="5" t="s">
+      <c r="N57" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="O57" s="6" t="s">
+      <c r="O57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P57" s="5" t="s">
+      <c r="P57" s="1" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4194,7 +4590,7 @@
       <c r="I58" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="J58" s="5" t="s">
+      <c r="J58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -4243,28 +4639,28 @@
       <c r="A60" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="1" t="s">
         <v>378</v>
       </c>
       <c r="I60" s="2">
         <v>0</v>
       </c>
-      <c r="J60" s="5" t="s">
+      <c r="J60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O60" s="6" t="s">
+      <c r="O60" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4272,7 +4668,7 @@
       <c r="A61" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="1" t="s">
         <v>380</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -4281,20 +4677,789 @@
       <c r="D61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="1" t="s">
         <v>382</v>
       </c>
       <c r="I61" s="2">
         <v>0</v>
       </c>
-      <c r="J61" s="5" t="s">
+      <c r="J61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O61" s="6" t="s">
+      <c r="O61" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="62" ht="128.25">
+      <c r="A62" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" ht="213.75">
+      <c r="A63" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="64" ht="42.75">
+      <c r="A64" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G65" t="s">
+        <v>372</v>
+      </c>
+      <c r="H65" t="s">
+        <v>372</v>
+      </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G66" t="s">
+        <v>372</v>
+      </c>
+      <c r="H66" t="s">
+        <v>372</v>
+      </c>
+      <c r="I66" s="2">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="O68" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I70" s="2">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I71" s="2">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I73" s="2">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I74" s="2">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="M75" s="1"/>
+      <c r="N75" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I76" s="2">
+        <v>0</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P76" s="6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="O78" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="I79" s="2">
+        <v>1</v>
+      </c>
+      <c r="J79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O80" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="I81" s="2">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/health_data/src/my_dictionary_v2.xlsx
+++ b/health_data/src/my_dictionary_v2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="670">
   <si>
     <t>variable</t>
   </si>
@@ -1051,6 +1051,9 @@
     <t xml:space="preserve">Severe cost burden is defined as monthly housing costs (including utilities) that exceed 50% of monthly income.</t>
   </si>
   <si>
+    <t xml:space="preserve">Data provider notes that this variable is different from percentage_of_households_with_high_housing_costs although they do not go into detail about how they are different.</t>
+  </si>
+  <si>
     <t>percentage_of_households_with_overcrowding</t>
   </si>
   <si>
@@ -1782,31 +1785,493 @@
     <t xml:space="preserve">easy access to state and county juvenile court case counts</t>
   </si>
   <si>
+    <t xml:space="preserve">Generally, only petitioned cases are counted in the numerator for Illinois and Ohio. This is due to differences by county in the reporting agency for these states. Data for Cook County, IL is provided by the Juvenile Court of Cook County. The data for the other 101 counties are provided by the Annual Report of Illinois Courts who do not report non-petitioned cases. Similarly in Ohio, data for Cuyahoga, Franklin, Hamilton and Lucas counties are provided by the Cuyahoga County Juvenile Court, Franklin County Court of Common Pleas, Hamilton County Juvenile Court, and Lucas County Juvenile Court respectively while all other counties are reported by the Supreme Court of Ohio.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The numerator is the number of delinquency cases formally processed in juvenile court (petitioned) and the number of delinquency cases informally handled (non-petitioned) for individuals ages 0 to the upper age of jurisdiction for a juvenile court. It is important to note that the numerator is cases and not offenders as a juvenile could have multiple delinquency violations.</t>
   </si>
   <si>
     <t xml:space="preserve">The denominator is the population ages 10 to the upper age of jurisdiction. The population value is rounded to the nearest 100. The age range of 10 to upper age is used because nearly all juvenile arrests occur among those who are 10 and older nation-wide (citation from 2019).</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Crimes are counted in the court jurisdiction where they occur rather than the residence of the juvenile. The upper age in which a juvenile court has jurisdiction is 17 for all states except for New York (15 years) and Georgia, Missouri, Texas, and Wisconsin (16 years). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">North Carolina? Missing?</t>
-    </r>
+    <t xml:space="preserve">A missing value is reported where case counts are 1 - 4 for either formally or informally reported cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crimes are counted in the court jurisdiction where they occur rather than the residence of the juvenile. The upper age in which a juvenile court has jurisdiction is 17 for all states except for New York (15 years) and Georgia, Missouri, Texas, and Wisconsin (16 years). There is a discrepancy in the documentation where some documentation notes that North Carolina has an upper age jurisdiction of 17 while other documentation says it is 15.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider does not recommend comparing across states due to differences in reporting practices, arrest rules, laws, and different juvenile age limits. Additonally, some states report calendar year estimates while other states report fiscal year estimates. Data provider recommends caution when comparing across counties (even within the same state) due to the fact that different jurisdictions are responsible for reporting arrests and court cases in each county which can lead to reporting differences (differentially report petitioned vs. non-petitioned cases). Data provider recommends caution when comparing across time noting that one should investigate if any methodological changes occurred in the areas of interest during the time period of interest.</t>
+  </si>
+  <si>
+    <t>number_of_juvenile_delinquency_cases_formally_processed_by_a_juvenile_court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is summed with number_of_informally_handled_juvenile_delinquency_cases to estimate the number of juvenile court cases. It is the number of juvenile court cases (juvenile_arrests) formally handled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generally, only petitioned cases are counted for Illinois and Ohio. This is due to differences by county in the reporting agency for these states. Data for Cook County, IL is provided by the Juvenile Court of Cook County. The data for the other 101 counties are provided by the Annual Report of Illinois Courts who do not report non-petitioned cases. Similarly in Ohio, data for Cuyahoga, Franklin, Hamilton and Lucas counties are provided by the Cuyahoga County Juvenile Court, Franklin County Court of Common Pleas, Hamilton County Juvenile Court, and Lucas County Juvenile Court respectively while all other counties are reported by the Supreme Court of Ohio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of delinquency cases formally processed in juvenile court (petitioned) for individuals ages 0 to the upper age of jurisdiction for a juvenile court. This typically means the intake department within the juvenile justice system deemed the charges sufficiently severe and sufficiently evidence-based to warrant a hearing before the judge. It is important to note that the numerator is cases and not offenders as a juvenile could have multiple delinquency violations.</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2020-2023, I set the stem value to be raw_value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A missing value is reported where case counts are 1 - 4.</t>
+  </si>
+  <si>
+    <t>number_of_informally_handled_juvenile_delinquency_cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is summed with number_of_juvenile_delinquency_cases_formally_processed_by_a_juvenile_court to estimate the number of juvenile court cases. It is the number of juvenile court cases (juvenile_arrests) informally handled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of delinquency cases informally processed in juvenile court (non-petitioned) for individuals ages 0 to the upper age of jurisdiction for a juvenile court.. This typically means the intake department within the juvenile justice system deemed the charges insufficiently severe or insufficiently evidence-based to warrant a hearing before a judge usually resulting in dismissal. Other times youth voluntarily agree to some lesser form of punishment such as informal probation, referral to a social service agency, or the payment of fines/restitution. It is important to note that the numerator is cases and not offenders as a juvenile could have multiple delinquency violations.</t>
+  </si>
+  <si>
+    <t>traffic_volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average traffic volume per meter of major roadways in a county.</t>
+  </si>
+  <si>
+    <t>ejscreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">environmental justice screening and mapping tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the average count of vehicles per meter per day within 500 meters of a census block centroid (the center point of a census block).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator includes all interstate, principal arterial, other National Highway System, and HPMS sample section roads.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic Volume at the county level is calculated by aggregating all the census block data within a county and weighting by the number of people in the corresponding blocks. The measure is reported as the average count of vehicles per meter per day within 500 meters of a census block centroid (the center point of a census block), divided by distance in meters, presented as the population-weighted average of blocks in each county. The closest traffic is given more weight through inverse distance weighting. A highway with 16,000 Annual Average Daily Traffic (AADT) at 400 meters distance would result in a score of 16,000/400=40.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data provider does not recommend comparing across states due to differences in state collection and reporting of traffic. Data provider does not recommend comparing across time to measure progress.</t>
+  </si>
+  <si>
+    <t>homeownership</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of all housing units which are owner-occupied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of owner-occupied housing units in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total occupied housing units in a county.</t>
+  </si>
+  <si>
+    <t>severe_housing_cost_burden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of households that spent at least 50% of their household income on housing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the total number of households in a county that spend 50% or more of their household income on housing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The denominator is the total occupied housing units for which housing cost burden is computed in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is unclear if this variable is different from high_housing_costs. If they are the same, they could be combined. Data provider notes that this variable is different from percentage_of_households_with_high_housing_costs although they do not go into detail about how they are different.</t>
+  </si>
+  <si>
+    <t>broadband_access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of households with broadband internet connection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The numerator is the number of households in a county with a broadband internet subscription of any type (e.g., cable, DSL, fiber-optic, cell phone, or satellite) at their place of residence. The numerator includes affirmative responses to the ACS question: “At this house, apartment, or mobile home- do you or any member of this household have access to the Internet?” </t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total resident population.</t>
+  </si>
+  <si>
+    <t>pep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Census Population Estimates Program</t>
+  </si>
+  <si>
+    <t>%_below_18_years_of_age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of total population below 18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of individuals younger than 18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total resident population.</t>
+  </si>
+  <si>
+    <t>%_65_and_older</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of total population 65 and older.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of individuals 65 and older.</t>
+  </si>
+  <si>
+    <t>%_non-hispanic_black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of total population that is non-Hispanic Black-American.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of non-Hispanic Black-Americans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2011 to 2019, I rename the variable from %_non-hispanic_african_american to %_non-hispanic_black for consistency purposes as newer releases of the data use Black instead of African-American.</t>
+  </si>
+  <si>
+    <t>%_american_indian_or_alaska_native</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of total population that is American Indian or an Alaskan Native.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of American Indians and Alaskan Natives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2011 to 2019, I rename the variable from %_american_indian_and_alaskan_native to %_american_indian_or_alaska_native AND from 2020 to 2022, I rename %_american_indian_&amp;_alaska_native to %_american_indian_or_alaska_native  for concistency purposes with newer releases of the data. </t>
+  </si>
+  <si>
+    <t>%_asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of total population that is Asian.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Asians.</t>
+  </si>
+  <si>
+    <t>%_native_hawaiian_or_other_pacific_islander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of total population that is Native Hawaiiian or an other Pacific Islander.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Native Hawaiiians and other Pacific Islanders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2011-2022, I rename %_native_hawaiian/other_pacific_islander to %_native_hawaiian_or_other_pacific_islander to match the newest release of the data.</t>
+  </si>
+  <si>
+    <t>%_hispanic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of total population that is Hispanic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Hispanics.</t>
+  </si>
+  <si>
+    <t>%_non-hispanic_white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of total population that is non-Hispanic White.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of non-Hispanic White-Americans.</t>
+  </si>
+  <si>
+    <t>%_not_proficient_in_english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of total population that is not proficient in English.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of individuals not proficient in English.</t>
+  </si>
+  <si>
+    <t>%_female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of total population that is female.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of females.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2011 to 2021, I rename the variable from %_females to %_female for consistency purposes with newer releases of the data.</t>
+  </si>
+  <si>
+    <t>%_rural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of total population that lives in rural areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of individuals living in rural areas.</t>
+  </si>
+  <si>
+    <t>could_not_see_doctor_due_to_cost</t>
+  </si>
+  <si>
+    <t>high_housing_costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of households with high housing costs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of households with high housing costs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of households.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is unclear if this variable is different from severe_housing_cost_burden. If they are the same, they could be combined.</t>
+  </si>
+  <si>
+    <t>access_to_parks</t>
+  </si>
+  <si>
+    <t>illiteracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nces naal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Center for Education Statistics's National Assessment of Adult Literacy</t>
+  </si>
+  <si>
+    <t>liquor_store_density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of liquor stores per 100,000 people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ccbp; pep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">census county business patterns; census population estimates program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of liquor stores in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2010, it was the number of liquor stores per 10,000 people. I transformed the values to harmonize them across years. Additionally, I transformed the 2011 values since they rounded to the nearest whole number.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquor stores are defined using NAICS code 445310.</t>
+  </si>
+  <si>
+    <t>diabetes_monitoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of diabetic Medicare enrollees (ages 65-75) who receive HbA1c monitoring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of diabetic Medicare enrolless ages 65-75 who receive HbA1c monitoring.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of diabetic Medicare enrolless ages 65-75.</t>
+  </si>
+  <si>
+    <t>adult_smoking_(fl)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only available for the state of Florida.</t>
+  </si>
+  <si>
+    <t>overweight_or_obese_adults_(fl)</t>
+  </si>
+  <si>
+    <t>fruit_and_vegetable_consumption_(fl)</t>
+  </si>
+  <si>
+    <t>adults_engaging_in_moderate_physical_activity_(f</t>
+  </si>
+  <si>
+    <t>excessive_drinking_(fl)</t>
+  </si>
+  <si>
+    <t>adults_who_have_a_personal_doctor_(fl)</t>
+  </si>
+  <si>
+    <t>insured_adults_(fl)</t>
+  </si>
+  <si>
+    <t>adequate_social/emotional_support_(fl)</t>
+  </si>
+  <si>
+    <t>obese_adults_(ny)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only available in the state of New York.</t>
+  </si>
+  <si>
+    <t>no_leisure_time_physical_activity_(ny)</t>
+  </si>
+  <si>
+    <t>binge_drinking_(ny)</t>
+  </si>
+  <si>
+    <t>excessive_drinking_(ny)</t>
+  </si>
+  <si>
+    <t>adult_smoking_(ny)</t>
+  </si>
+  <si>
+    <t>fair_or_poor_health_(ny)</t>
+  </si>
+  <si>
+    <t>dental_visit_within_the_past_year_(ny)</t>
+  </si>
+  <si>
+    <t>smoking_during_pregnancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only available for the state of Wisconsin.</t>
+  </si>
+  <si>
+    <t>motor_vehicle_crash_occupancy_rate</t>
+  </si>
+  <si>
+    <t>on-road_motor_vehicle_crash-related_er_visits</t>
+  </si>
+  <si>
+    <t>off-road_motor_vehicle_crash-related_er_visits</t>
+  </si>
+  <si>
+    <t>no_recent_dental_visit</t>
+  </si>
+  <si>
+    <t>did_not_get_needed_health_care</t>
+  </si>
+  <si>
+    <t>lead_poisoned_children</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From 2010-2012, this variable used to be named lead_poisoned_children_(wi). Starting in 2013, they dropped the _(wi). I update the name of this variable in older releases to match the newer name.</t>
+  </si>
+  <si>
+    <t>municipal_water_(wi)</t>
+  </si>
+  <si>
+    <t>contaminants_in_municipal_water_(wi)</t>
+  </si>
+  <si>
+    <t>communicable_disease</t>
+  </si>
+  <si>
+    <t>coronary_heart_disease_hospitalizations</t>
+  </si>
+  <si>
+    <t>cerebrovascular_disease_hospitalizations</t>
+  </si>
+  <si>
+    <t>self-inflicted_injury_hospitalizations</t>
+  </si>
+  <si>
+    <t>cancer_incidence</t>
+  </si>
+  <si>
+    <t>alcohol-related_hospitalizations</t>
+  </si>
+  <si>
+    <t>drug_arrests</t>
+  </si>
+  <si>
+    <t>childhood_immunizations</t>
+  </si>
+  <si>
+    <t>local_health_department_staffing</t>
+  </si>
+  <si>
+    <t>dental_utilization</t>
+  </si>
+  <si>
+    <t>cholesterol_screening</t>
+  </si>
+  <si>
+    <t>reading_proficiency</t>
+  </si>
+  <si>
+    <t>w-2_enrollment</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>older_adults_living_alone</t>
+  </si>
+  <si>
+    <t>hate_crimes</t>
+  </si>
+  <si>
+    <t>child_abuse</t>
+  </si>
+  <si>
+    <t>injury_hospitalizations</t>
+  </si>
+  <si>
+    <t>fall_fatalities_65+</t>
+  </si>
+  <si>
+    <t>year_structure_built</t>
+  </si>
+  <si>
+    <t>male_population_0-17</t>
+  </si>
+  <si>
+    <t>male_population_18-44</t>
+  </si>
+  <si>
+    <t>male_population_45-64</t>
+  </si>
+  <si>
+    <t>male_population_65+</t>
+  </si>
+  <si>
+    <t>total_male_population</t>
+  </si>
+  <si>
+    <t>female_population_0-17</t>
+  </si>
+  <si>
+    <t>female_population_18-44</t>
+  </si>
+  <si>
+    <t>female_population_45-64</t>
+  </si>
+  <si>
+    <t>female_population_65+</t>
+  </si>
+  <si>
+    <t>total_female_population</t>
+  </si>
+  <si>
+    <t>population_growth</t>
+  </si>
+  <si>
+    <t>breastfeeding</t>
+  </si>
+  <si>
+    <t>influenza_immunizations_65+</t>
+  </si>
+  <si>
+    <t>cervical_cancer_screening</t>
+  </si>
+  <si>
+    <t>colon_cancer_screening</t>
+  </si>
+  <si>
+    <t>opioid_hospital_visits</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +2319,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1868,14 +2333,17 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2384,27 +2852,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="55.00390625"/>
-    <col customWidth="1" min="2" max="2" style="1" width="33.28125"/>
-    <col customWidth="1" min="3" max="3" style="1" width="10.00390625"/>
-    <col customWidth="1" min="4" max="4" style="1" width="17.00390625"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="2" width="71.140625"/>
+    <col customWidth="1" min="2" max="2" style="1" width="77.7109375"/>
+    <col customWidth="1" min="3" max="3" style="1" width="25.421875"/>
+    <col customWidth="1" min="4" max="4" style="1" width="36.140625"/>
     <col customWidth="1" min="5" max="6" style="1" width="48.57421875"/>
-    <col customWidth="1" min="7" max="7" style="1" width="48.00390625"/>
+    <col customWidth="1" min="7" max="7" style="1" width="50.421875"/>
     <col customWidth="1" min="8" max="8" style="1" width="34.140625"/>
-    <col bestFit="1" customWidth="1" min="9" max="9" style="2" width="18.28125"/>
-    <col customWidth="1" min="10" max="10" style="1" width="16.8515625"/>
+    <col bestFit="1" customWidth="1" min="9" max="10" style="1" width="25.28125"/>
     <col customWidth="1" min="11" max="11" style="1" width="45.28125"/>
     <col customWidth="1" min="12" max="12" style="1" width="58.8515625"/>
     <col customWidth="1" min="13" max="13" style="1" width="70.00390625"/>
     <col customWidth="1" min="14" max="14" style="1" width="86.421875"/>
-    <col customWidth="1" min="15" max="15" style="1" width="17.8515625"/>
+    <col customWidth="1" min="15" max="15" style="1" width="26.7109375"/>
     <col customWidth="1" min="16" max="16" style="1" width="55.7109375"/>
     <col min="17" max="16384" style="1" width="9.140625"/>
   </cols>
@@ -2434,7 +2901,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -2484,7 +2951,7 @@
       <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -2526,7 +2993,7 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -2570,7 +3037,7 @@
       <c r="H4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -2612,7 +3079,7 @@
       <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -2656,7 +3123,7 @@
       <c r="H6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -2703,7 +3170,7 @@
       <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -2747,7 +3214,7 @@
       <c r="H8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -2784,7 +3251,7 @@
       <c r="H9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2826,7 +3293,7 @@
       <c r="H10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -2863,7 +3330,7 @@
       <c r="H11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -2904,7 +3371,7 @@
       <c r="H12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -2944,7 +3411,7 @@
       <c r="H13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="1" t="s">
         <v>95</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2985,7 +3452,7 @@
       <c r="H14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -3020,7 +3487,7 @@
       <c r="H15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -3062,7 +3529,7 @@
       <c r="H16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -3083,7 +3550,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" ht="42.75">
+    <row r="17" ht="28.5">
       <c r="A17" s="2" t="s">
         <v>120</v>
       </c>
@@ -3104,7 +3571,7 @@
       <c r="H17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -3139,7 +3606,7 @@
       <c r="H18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -3186,7 +3653,7 @@
       <c r="H19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -3232,7 +3699,7 @@
       <c r="H20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="1">
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -3277,7 +3744,7 @@
       <c r="H21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -3322,7 +3789,7 @@
       <c r="H22" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="1">
         <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -3365,7 +3832,7 @@
       <c r="H23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -3405,7 +3872,7 @@
       <c r="H24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="1">
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -3436,7 +3903,7 @@
       <c r="H25" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -3470,7 +3937,7 @@
       <c r="H26" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -3501,7 +3968,7 @@
       <c r="H27" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -3534,7 +4001,7 @@
       <c r="H28" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -3569,7 +4036,7 @@
       <c r="H29" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -3601,7 +4068,7 @@
       <c r="H30" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="1">
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -3630,7 +4097,7 @@
       <c r="D31" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -3665,7 +4132,7 @@
       <c r="H32" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -3700,7 +4167,7 @@
       <c r="H33" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -3732,7 +4199,7 @@
       <c r="H34" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="1">
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -3767,7 +4234,7 @@
       <c r="H35" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -3805,7 +4272,7 @@
       <c r="H36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="1">
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -3821,7 +4288,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="37" ht="57">
+    <row r="37" ht="28.5">
       <c r="A37" s="2" t="s">
         <v>262</v>
       </c>
@@ -3840,7 +4307,7 @@
       <c r="H37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -3850,7 +4317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" ht="57">
+    <row r="38" ht="28.5">
       <c r="A38" s="2" t="s">
         <v>264</v>
       </c>
@@ -3869,7 +4336,7 @@
       <c r="H38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="1">
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -3901,7 +4368,7 @@
       <c r="H39" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -3911,7 +4378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" ht="71.25">
+    <row r="40" ht="57">
       <c r="A40" s="2" t="s">
         <v>273</v>
       </c>
@@ -3933,7 +4400,7 @@
       <c r="H40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="1">
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -3968,7 +4435,7 @@
       <c r="H41" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -3981,7 +4448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" ht="57">
+    <row r="42" ht="42.75">
       <c r="A42" s="2" t="s">
         <v>288</v>
       </c>
@@ -4000,7 +4467,7 @@
       <c r="H42" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="1">
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -4015,13 +4482,16 @@
       <c r="O42" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" ht="57">
+      <c r="P42" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" ht="28.5">
       <c r="A43" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>283</v>
@@ -4030,12 +4500,12 @@
         <v>284</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -4045,18 +4515,18 @@
         <v>291</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" ht="57">
+    <row r="44" ht="42.75">
       <c r="A44" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>283</v>
@@ -4065,12 +4535,12 @@
         <v>284</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -4080,7 +4550,7 @@
         <v>291</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>25</v>
@@ -4088,10 +4558,10 @@
     </row>
     <row r="45" ht="28.5">
       <c r="A45" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>195</v>
@@ -4100,12 +4570,12 @@
         <v>221</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I45" s="2">
+        <v>305</v>
+      </c>
+      <c r="I45" s="1">
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -4117,10 +4587,10 @@
     </row>
     <row r="46" ht="42.75">
       <c r="A46" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>195</v>
@@ -4129,12 +4599,12 @@
         <v>221</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I46" s="2">
+        <v>309</v>
+      </c>
+      <c r="I46" s="1">
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -4146,10 +4616,10 @@
     </row>
     <row r="47" ht="114">
       <c r="A47" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>18</v>
@@ -4166,17 +4636,17 @@
       <c r="H47" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="1">
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>25</v>
@@ -4184,10 +4654,10 @@
     </row>
     <row r="48" ht="114">
       <c r="A48" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>18</v>
@@ -4199,22 +4669,22 @@
         <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I48" s="2">
+        <v>317</v>
+      </c>
+      <c r="I48" s="1">
         <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>25</v>
@@ -4222,10 +4692,10 @@
     </row>
     <row r="49" ht="114">
       <c r="A49" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>18</v>
@@ -4237,22 +4707,22 @@
         <v>20</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="I49" s="2">
+        <v>322</v>
+      </c>
+      <c r="I49" s="1">
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>25</v>
@@ -4260,10 +4730,10 @@
     </row>
     <row r="50" ht="114">
       <c r="A50" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>18</v>
@@ -4275,22 +4745,22 @@
         <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="I50" s="2">
+        <v>327</v>
+      </c>
+      <c r="I50" s="1">
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>25</v>
@@ -4298,10 +4768,10 @@
     </row>
     <row r="51" ht="285">
       <c r="A51" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>28</v>
@@ -4313,12 +4783,12 @@
         <v>30</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -4331,15 +4801,15 @@
         <v>35</v>
       </c>
       <c r="P51" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" ht="285">
       <c r="A52" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>28</v>
@@ -4351,12 +4821,12 @@
         <v>30</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="1">
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -4369,15 +4839,15 @@
         <v>35</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" ht="285">
       <c r="A53" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>28</v>
@@ -4389,15 +4859,15 @@
         <v>30</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <v>1</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -4410,15 +4880,15 @@
         <v>35</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" ht="114">
       <c r="A54" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>108</v>
@@ -4427,101 +4897,101 @@
         <v>109</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I54" s="2">
+        <v>345</v>
+      </c>
+      <c r="I54" s="1">
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>95</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" ht="142.5">
       <c r="A55" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N55" s="5" t="s">
-        <v>354</v>
+      <c r="N55" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" ht="213.75">
       <c r="A56" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I56" s="2">
+        <v>363</v>
+      </c>
+      <c r="I56" s="1">
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>25</v>
@@ -4529,10 +4999,10 @@
     </row>
     <row r="57" ht="142.5">
       <c r="A57" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>18</v>
@@ -4544,36 +5014,36 @@
         <v>20</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="I57" s="2">
+        <v>368</v>
+      </c>
+      <c r="I57" s="1">
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="58" ht="85.5">
       <c r="A58" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>18</v>
@@ -4582,33 +5052,33 @@
         <v>19</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="59" ht="57">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" ht="28.5">
       <c r="A59" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>18</v>
@@ -4617,30 +5087,30 @@
         <v>19</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="60" ht="42.75">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" ht="28.5">
       <c r="A60" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>122</v>
@@ -4649,12 +5119,12 @@
         <v>123</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="I60" s="2">
+        <v>379</v>
+      </c>
+      <c r="I60" s="1">
         <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -4664,12 +5134,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" ht="42.75">
+    <row r="61" ht="28.5">
       <c r="A61" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>122</v>
@@ -4678,12 +5148,12 @@
         <v>123</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I61" s="2">
+        <v>383</v>
+      </c>
+      <c r="I61" s="1">
         <v>0</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -4695,10 +5165,10 @@
     </row>
     <row r="62" ht="128.25">
       <c r="A62" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>156</v>
@@ -4710,81 +5180,81 @@
         <v>158</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="I62" s="2">
+        <v>387</v>
+      </c>
+      <c r="I62" s="1">
         <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>133</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O62" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q62" s="1"/>
     </row>
     <row r="63" ht="213.75">
       <c r="A63" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="I63" s="2">
+        <v>399</v>
+      </c>
+      <c r="I63" s="1">
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O63" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" ht="42.75">
       <c r="A64" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>195</v>
@@ -4793,15 +5263,15 @@
         <v>196</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I64" s="2">
+        <v>406</v>
+      </c>
+      <c r="I64" s="1">
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -4811,39 +5281,39 @@
         <v>35</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" ht="14.25">
       <c r="A65" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G65" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H65" t="s">
-        <v>372</v>
-      </c>
-      <c r="I65" s="2">
+        <v>373</v>
+      </c>
+      <c r="I65" s="1">
         <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O65" s="1" t="s">
         <v>25</v>
@@ -4851,34 +5321,34 @@
     </row>
     <row r="66" ht="14.25">
       <c r="A66" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G66" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H66" t="s">
-        <v>372</v>
-      </c>
-      <c r="I66" s="2">
+        <v>373</v>
+      </c>
+      <c r="I66" s="1">
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O66" s="1" t="s">
         <v>25</v>
@@ -4886,16 +5356,16 @@
     </row>
     <row r="67" ht="14.25">
       <c r="A67" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>68</v>
@@ -4903,17 +5373,17 @@
       <c r="H67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="1">
         <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>69</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O67" s="1" t="s">
         <v>25</v>
@@ -4921,24 +5391,24 @@
     </row>
     <row r="68" ht="14.25">
       <c r="A68" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I68" s="2">
+        <v>373</v>
+      </c>
+      <c r="I68" s="1">
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
@@ -4951,10 +5421,10 @@
     </row>
     <row r="69" ht="14.25">
       <c r="A69" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>195</v>
@@ -4963,19 +5433,19 @@
         <v>196</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="I69" s="2">
+        <v>430</v>
+      </c>
+      <c r="I69" s="1">
         <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>224</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>25</v>
@@ -4983,10 +5453,10 @@
     </row>
     <row r="70" ht="14.25">
       <c r="A70" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>213</v>
@@ -4996,7 +5466,7 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>68</v>
@@ -5004,14 +5474,14 @@
       <c r="H70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="1">
         <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>25</v>
@@ -5019,19 +5489,19 @@
     </row>
     <row r="71" ht="14.25">
       <c r="A71" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>68</v>
@@ -5039,90 +5509,90 @@
       <c r="H71" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="1">
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>69</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P71" s="6" t="s">
-        <v>441</v>
+      <c r="P71" s="1" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="72" ht="14.25">
       <c r="A72" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I72" s="2">
+        <v>447</v>
+      </c>
+      <c r="I72" s="1">
         <v>0</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" ht="14.25">
       <c r="A73" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I73" s="2">
+        <v>447</v>
+      </c>
+      <c r="I73" s="1">
         <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>33</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>25</v>
@@ -5130,10 +5600,10 @@
     </row>
     <row r="74" ht="14.25">
       <c r="A74" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>195</v>
@@ -5141,34 +5611,34 @@
       <c r="D74" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H74" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="1">
         <v>0</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="J74" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L74" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="N74" s="6" t="s">
+      <c r="L74" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="O74" s="6" t="s">
+      <c r="N74" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="O74" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="75" ht="14.25">
       <c r="A75" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>195</v>
@@ -5176,111 +5646,111 @@
       <c r="D75" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="1">
         <v>0</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="J75" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L75" s="6" t="s">
-        <v>372</v>
+      <c r="L75" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="M75" s="1"/>
-      <c r="N75" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="O75" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="P75" s="6" t="s">
-        <v>372</v>
+      <c r="N75" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B76" s="6" t="s">
+      <c r="A76" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="B76" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="C76" s="1" t="s">
         <v>463</v>
       </c>
+      <c r="D76" s="1" t="s">
+        <v>464</v>
+      </c>
       <c r="E76" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="I76" s="2">
+        <v>466</v>
+      </c>
+      <c r="I76" s="1">
         <v>0</v>
       </c>
-      <c r="J76" s="6" t="s">
+      <c r="J76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N76" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="O76" s="6" t="s">
+      <c r="N76" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O76" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P76" s="6" t="s">
-        <v>467</v>
+      <c r="P76" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="77" ht="14.25">
       <c r="A77" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="I77" s="2">
+        <v>474</v>
+      </c>
+      <c r="I77" s="1">
         <v>0</v>
       </c>
-      <c r="J77" s="6" t="s">
+      <c r="J77" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N77" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="O77" s="6" t="s">
+      <c r="N77" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P77" s="6" t="s">
-        <v>475</v>
+      <c r="P77" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="78" ht="14.25">
       <c r="A78" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B78" s="6" t="s">
         <v>477</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>18</v>
@@ -5291,34 +5761,34 @@
       <c r="E78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>478</v>
+      <c r="G78" s="1" t="s">
+        <v>479</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I78" s="2">
+        <v>480</v>
+      </c>
+      <c r="I78" s="1">
         <v>0</v>
       </c>
-      <c r="J78" s="6" t="s">
+      <c r="J78" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="N78" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="O78" s="6" t="s">
+      <c r="N78" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B79" s="6" t="s">
+      <c r="A79" s="2" t="s">
         <v>483</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>18</v>
@@ -5329,34 +5799,34 @@
       <c r="E79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G79" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="H79" s="6" t="s">
+      <c r="G79" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="I79" s="2">
+      <c r="H79" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I79" s="1">
         <v>1</v>
       </c>
-      <c r="J79" s="6" t="s">
+      <c r="J79" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="N79" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="O79" s="6" t="s">
+      <c r="N79" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="O79" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="A80" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B80" s="6" t="s">
         <v>489</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>18</v>
@@ -5367,34 +5837,34 @@
       <c r="E80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="H80" s="6" t="s">
+      <c r="G80" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="I80" s="2">
+      <c r="H80" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="I80" s="1">
         <v>0</v>
       </c>
-      <c r="J80" s="6" t="s">
+      <c r="J80" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="N80" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="O80" s="6" t="s">
+      <c r="N80" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="O80" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B81" s="6" t="s">
         <v>495</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>18</v>
@@ -5405,61 +5875,2765 @@
       <c r="E81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="G81" s="6" t="s">
+      <c r="F81" s="1" t="s">
         <v>497</v>
       </c>
+      <c r="G81" s="1" t="s">
+        <v>498</v>
+      </c>
       <c r="H81" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="I81" s="2">
+        <v>499</v>
+      </c>
+      <c r="I81" s="1">
         <v>0</v>
       </c>
-      <c r="J81" s="6" t="s">
+      <c r="J81" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="N81" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="O81" s="6" t="s">
+      <c r="N81" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="O81" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P81" s="6" t="s">
-        <v>501</v>
+      <c r="P81" s="1" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C82" s="6" t="s">
         <v>504</v>
       </c>
+      <c r="C82" s="1" t="s">
+        <v>505</v>
+      </c>
       <c r="D82" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P82" s="5" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="D83" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="H82" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="I82" s="2">
+      <c r="F83" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I83" s="1">
         <v>0</v>
       </c>
-      <c r="J82" s="6" t="s">
+      <c r="J83" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O87" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O88" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="O89" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="A98" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="A102" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I102" s="5">
+        <v>0</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="A104" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="P104" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="105" ht="14.25">
+      <c r="A105" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N82" s="6" t="s">
-        <v>508</v>
+      <c r="K105" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="N105" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="A106" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K106" s="8"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P106" s="1"/>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="O107" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="A108" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="A109" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="A110" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="A111" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="A115" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="A116" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="A118" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="A119" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="A120" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="A121" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P121" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="A122" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="A123" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="A124" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P124" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25">
+      <c r="A125" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="A126" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="127" ht="14.25">
+      <c r="A127" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K127" s="1"/>
+      <c r="N127" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P127" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="A128" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P128" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="A129" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="A130" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25">
+      <c r="A131" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P131" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25">
+      <c r="A132" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P132" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25">
+      <c r="A133" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25">
+      <c r="A134" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="135" ht="14.25">
+      <c r="A135" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P135" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="136" ht="14.25">
+      <c r="A136" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25">
+      <c r="A137" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P137" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25">
+      <c r="A138" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25">
+      <c r="A139" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P139" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25">
+      <c r="A140" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P140" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25">
+      <c r="A141" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="142" ht="14.25">
+      <c r="A142" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25">
+      <c r="A143" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25">
+      <c r="A144" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N144" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P144" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="145" ht="14.25">
+      <c r="A145" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O145" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P145" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25">
+      <c r="A146" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25">
+      <c r="A147" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N147" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P147" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25">
+      <c r="A148" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25">
+      <c r="A149" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N149" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P149" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25">
+      <c r="A150" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P150" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="151" ht="14.25">
+      <c r="A151" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25">
+      <c r="A152" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O152" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25">
+      <c r="A153" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="154" ht="14.25">
+      <c r="A154" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N154" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P154" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="155" ht="14.25">
+      <c r="A155" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N155" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P155" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="156" ht="14.25">
+      <c r="A156" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="157" ht="14.25">
+      <c r="A157" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="158" ht="14.25">
+      <c r="A158" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P158" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25">
+      <c r="A159" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O159" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P159" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="160" ht="14.25">
+      <c r="A160" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="161" ht="14.25">
+      <c r="A161" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="162" ht="14.25">
+      <c r="A162" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="163" ht="14.25">
+      <c r="A163" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25">
+      <c r="A164" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="165" ht="14.25">
+      <c r="A165" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="166" ht="14.25">
+      <c r="A166" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N166" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/health_data/src/my_dictionary_v2.xlsx
+++ b/health_data/src/my_dictionary_v2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="676">
   <si>
     <t>variable</t>
   </si>
@@ -2082,6 +2082,24 @@
     <t xml:space="preserve">The number of diabetic Medicare enrolless ages 65-75.</t>
   </si>
   <si>
+    <t>hospice_use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of chronically ill Medicare enrollees admitted to hospice in last 6 months of life.</t>
+  </si>
+  <si>
+    <t>college_degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population ages 25 and older with at least a 4 year degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of individuals ages 25 and older with at least a 4 year degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of individuals ages 25 and older.</t>
+  </si>
+  <si>
     <t>adult_smoking_(fl)</t>
   </si>
   <si>
@@ -2319,7 +2337,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2333,14 +2351,17 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2852,7 +2873,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -4482,7 +4503,7 @@
       <c r="O42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P42" s="5" t="s">
+      <c r="P42" s="1" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4952,7 +4973,7 @@
       <c r="J55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N55" s="6" t="s">
+      <c r="N55" s="5" t="s">
         <v>355</v>
       </c>
       <c r="O55" s="1" t="s">
@@ -5916,10 +5937,10 @@
       <c r="D82" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="1" t="s">
         <v>508</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -5931,16 +5952,16 @@
       <c r="J82" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L82" s="5" t="s">
+      <c r="L82" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="O82" s="5" t="s">
+      <c r="O82" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P82" s="5" t="s">
+      <c r="P82" s="1" t="s">
         <v>512</v>
       </c>
     </row>
@@ -5948,7 +5969,7 @@
       <c r="A83" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="1" t="s">
         <v>514</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -5957,31 +5978,31 @@
       <c r="D83" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
       </c>
-      <c r="J83" s="5" t="s">
+      <c r="J83" s="1" t="s">
         <v>517</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="L83" s="5" t="s">
+      <c r="L83" s="1" t="s">
         <v>519</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="O83" s="5" t="s">
+      <c r="O83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P83" s="1" t="s">
@@ -5992,7 +6013,7 @@
       <c r="A84" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="1" t="s">
         <v>521</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -6001,31 +6022,31 @@
       <c r="D84" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I84" s="1">
         <v>0</v>
       </c>
-      <c r="J84" s="5" t="s">
+      <c r="J84" s="1" t="s">
         <v>517</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="L84" s="5" t="s">
+      <c r="L84" s="1" t="s">
         <v>519</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="O84" s="5" t="s">
+      <c r="O84" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P84" s="1" t="s">
@@ -6036,7 +6057,7 @@
       <c r="A85" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="1" t="s">
         <v>524</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -6048,22 +6069,22 @@
       <c r="G85" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="1" t="s">
         <v>528</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
       </c>
-      <c r="J85" s="5" t="s">
+      <c r="J85" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="O85" s="5" t="s">
+      <c r="O85" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P85" s="5" t="s">
+      <c r="P85" s="1" t="s">
         <v>530</v>
       </c>
     </row>
@@ -6071,7 +6092,7 @@
       <c r="A86" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="1" t="s">
         <v>532</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -6089,10 +6110,10 @@
       <c r="I86" s="1">
         <v>0</v>
       </c>
-      <c r="J86" s="5" t="s">
+      <c r="J86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O86" s="5" t="s">
+      <c r="O86" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6100,7 +6121,7 @@
       <c r="A87" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="1" t="s">
         <v>536</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -6109,22 +6130,22 @@
       <c r="D87" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G87" s="5" t="s">
+      <c r="G87" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H87" s="1" t="s">
         <v>538</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
       </c>
-      <c r="J87" s="5" t="s">
+      <c r="J87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O87" s="5" t="s">
+      <c r="O87" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P87" s="5" t="s">
+      <c r="P87" s="1" t="s">
         <v>539</v>
       </c>
     </row>
@@ -6144,16 +6165,16 @@
       <c r="G88" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H88" s="1" t="s">
         <v>286</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
       </c>
-      <c r="J88" s="5" t="s">
+      <c r="J88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O88" s="5" t="s">
+      <c r="O88" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6167,22 +6188,22 @@
       <c r="C89" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G89" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I89" s="1">
         <v>0</v>
       </c>
-      <c r="J89" s="5" t="s">
+      <c r="J89" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="O89" s="5" t="s">
+      <c r="O89" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6196,19 +6217,19 @@
       <c r="C90" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="1" t="s">
         <v>550</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
       </c>
-      <c r="J90" s="5" t="s">
+      <c r="J90" s="1" t="s">
         <v>33</v>
       </c>
       <c r="O90" s="1" t="s">
@@ -6225,10 +6246,10 @@
       <c r="C91" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="G91" s="1" t="s">
         <v>553</v>
       </c>
       <c r="H91" s="1" t="s">
@@ -6248,16 +6269,16 @@
       <c r="A92" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="1" t="s">
         <v>555</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="1" t="s">
         <v>556</v>
       </c>
       <c r="H92" s="1" t="s">
@@ -6286,10 +6307,10 @@
       <c r="C93" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G93" s="5" t="s">
+      <c r="G93" s="1" t="s">
         <v>560</v>
       </c>
       <c r="H93" s="1" t="s">
@@ -6318,10 +6339,10 @@
       <c r="C94" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="1" t="s">
         <v>564</v>
       </c>
       <c r="H94" s="1" t="s">
@@ -6347,10 +6368,10 @@
       <c r="C95" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="G95" s="1" t="s">
         <v>567</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -6379,10 +6400,10 @@
       <c r="C96" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="1" t="s">
         <v>571</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -6408,10 +6429,10 @@
       <c r="C97" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="G97" s="1" t="s">
         <v>574</v>
       </c>
       <c r="H97" s="1" t="s">
@@ -6437,10 +6458,10 @@
       <c r="C98" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="1" t="s">
         <v>577</v>
       </c>
       <c r="H98" s="1" t="s">
@@ -6466,10 +6487,10 @@
       <c r="C99" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="G99" s="1" t="s">
         <v>580</v>
       </c>
       <c r="H99" s="1" t="s">
@@ -6498,10 +6519,10 @@
       <c r="C100" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="1" t="s">
         <v>584</v>
       </c>
       <c r="H100" s="1" t="s">
@@ -6521,31 +6542,31 @@
       <c r="A101" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B101" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G101" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="O101" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="P101" s="5" t="s">
+      <c r="G101" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P101" s="1" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6553,7 +6574,7 @@
       <c r="A102" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="1" t="s">
         <v>587</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -6562,54 +6583,54 @@
       <c r="D102" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="I102" s="5">
+      <c r="I102" s="1">
         <v>0</v>
       </c>
-      <c r="J102" s="5" t="s">
+      <c r="J102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O102" s="5" t="s">
+      <c r="O102" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P102" s="5" t="s">
+      <c r="P102" s="1" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="103" ht="14.25">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C103" s="5" t="s">
+      <c r="B103" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G103" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="O103" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="P103" s="5" t="s">
+      <c r="G103" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P103" s="1" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6617,31 +6638,31 @@
       <c r="A104" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C104" s="5" t="s">
+      <c r="B104" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="G104" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="I104" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="J104" s="5" t="s">
+      <c r="G104" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O104" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="P104" s="5" t="s">
+      <c r="O104" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P104" s="1" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6649,138 +6670,138 @@
       <c r="A105" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="G105" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="1" t="s">
         <v>550</v>
       </c>
       <c r="I105" s="1">
         <v>0</v>
       </c>
-      <c r="J105" s="5" t="s">
+      <c r="J105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K105" s="5" t="s">
+      <c r="K105" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="N105" s="5" t="s">
+      <c r="N105" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="O105" s="5" t="s">
+      <c r="O105" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="106" ht="14.25">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="H106" s="1" t="s">
         <v>605</v>
       </c>
       <c r="I106" s="1">
         <v>0</v>
       </c>
-      <c r="J106" s="5" t="s">
+      <c r="J106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K106" s="8"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5" t="s">
+      <c r="K106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1" t="s">
         <v>25</v>
       </c>
       <c r="P106" s="1"/>
     </row>
     <row r="107" ht="14.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="N107" s="5" t="s">
+      <c r="B107" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="O107" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="P107" s="1" t="s">
-        <v>373</v>
-      </c>
+      <c r="C107" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K107" s="9"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P107" s="1"/>
     </row>
     <row r="108" ht="14.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="6" t="s">
         <v>608</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>373</v>
-      </c>
+      <c r="B108" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K108" s="9"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P108" s="1"/>
     </row>
     <row r="109" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="B109" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B109" s="7" t="s">
         <v>373</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -6799,7 +6820,7 @@
         <v>373</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="O109" s="1" t="s">
         <v>373</v>
@@ -6810,12 +6831,12 @@
     </row>
     <row r="110" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="1" t="s">
         <v>373</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -6831,7 +6852,7 @@
         <v>373</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="O110" s="1" t="s">
         <v>373</v>
@@ -6842,9 +6863,9 @@
     </row>
     <row r="111" ht="14.25">
       <c r="A111" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B111" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -6863,7 +6884,7 @@
         <v>373</v>
       </c>
       <c r="N111" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="O111" s="1" t="s">
         <v>373</v>
@@ -6874,12 +6895,12 @@
     </row>
     <row r="112" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="1" t="s">
         <v>373</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -6895,7 +6916,7 @@
         <v>373</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="O112" s="1" t="s">
         <v>373</v>
@@ -6906,28 +6927,28 @@
     </row>
     <row r="113" ht="14.25">
       <c r="A113" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N113" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>373</v>
@@ -6938,12 +6959,12 @@
     </row>
     <row r="114" ht="14.25">
       <c r="A114" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="1" t="s">
         <v>373</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -6959,7 +6980,7 @@
         <v>373</v>
       </c>
       <c r="N114" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="O114" s="1" t="s">
         <v>373</v>
@@ -6970,7 +6991,7 @@
     </row>
     <row r="115" ht="14.25">
       <c r="A115" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>373</v>
@@ -6990,8 +7011,8 @@
       <c r="J115" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N115" s="5" t="s">
-        <v>616</v>
+      <c r="N115" s="1" t="s">
+        <v>613</v>
       </c>
       <c r="O115" s="1" t="s">
         <v>373</v>
@@ -7002,7 +7023,7 @@
     </row>
     <row r="116" ht="14.25">
       <c r="A116" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>373</v>
@@ -7023,7 +7044,7 @@
         <v>373</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="O116" s="1" t="s">
         <v>373</v>
@@ -7034,7 +7055,7 @@
     </row>
     <row r="117" ht="14.25">
       <c r="A117" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>373</v>
@@ -7055,7 +7076,7 @@
         <v>373</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O117" s="1" t="s">
         <v>373</v>
@@ -7066,7 +7087,7 @@
     </row>
     <row r="118" ht="14.25">
       <c r="A118" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>373</v>
@@ -7087,7 +7108,7 @@
         <v>373</v>
       </c>
       <c r="N118" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O118" s="1" t="s">
         <v>373</v>
@@ -7098,7 +7119,7 @@
     </row>
     <row r="119" ht="14.25">
       <c r="A119" s="2" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>373</v>
@@ -7119,7 +7140,7 @@
         <v>373</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O119" s="1" t="s">
         <v>373</v>
@@ -7130,7 +7151,7 @@
     </row>
     <row r="120" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>373</v>
@@ -7151,7 +7172,7 @@
         <v>373</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="O120" s="1" t="s">
         <v>373</v>
@@ -7162,28 +7183,28 @@
     </row>
     <row r="121" ht="14.25">
       <c r="A121" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N121" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="O121" s="1" t="s">
         <v>373</v>
@@ -7194,7 +7215,7 @@
     </row>
     <row r="122" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>373</v>
@@ -7215,7 +7236,7 @@
         <v>373</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O122" s="1" t="s">
         <v>373</v>
@@ -7226,7 +7247,7 @@
     </row>
     <row r="123" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>373</v>
@@ -7247,7 +7268,7 @@
         <v>373</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O123" s="1" t="s">
         <v>373</v>
@@ -7258,7 +7279,7 @@
     </row>
     <row r="124" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>373</v>
@@ -7279,7 +7300,7 @@
         <v>373</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O124" s="1" t="s">
         <v>373</v>
@@ -7290,7 +7311,7 @@
     </row>
     <row r="125" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>373</v>
@@ -7311,7 +7332,7 @@
         <v>373</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O125" s="1" t="s">
         <v>373</v>
@@ -7322,7 +7343,7 @@
     </row>
     <row r="126" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>373</v>
@@ -7343,7 +7364,7 @@
         <v>373</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O126" s="1" t="s">
         <v>373</v>
@@ -7354,7 +7375,7 @@
     </row>
     <row r="127" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>373</v>
@@ -7374,9 +7395,8 @@
       <c r="J127" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K127" s="1"/>
       <c r="N127" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O127" s="1" t="s">
         <v>373</v>
@@ -7387,31 +7407,28 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N128" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="K128" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="N128" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="O128" s="1" t="s">
         <v>373</v>
@@ -7422,7 +7439,7 @@
     </row>
     <row r="129" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>373</v>
@@ -7442,8 +7459,9 @@
       <c r="J129" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="K129" s="1"/>
       <c r="N129" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>373</v>
@@ -7454,7 +7472,7 @@
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>373</v>
@@ -7474,8 +7492,11 @@
       <c r="J130" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="K130" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="N130" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O130" s="1" t="s">
         <v>373</v>
@@ -7486,7 +7507,7 @@
     </row>
     <row r="131" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>373</v>
@@ -7507,7 +7528,7 @@
         <v>373</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O131" s="1" t="s">
         <v>373</v>
@@ -7518,7 +7539,7 @@
     </row>
     <row r="132" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>373</v>
@@ -7539,7 +7560,7 @@
         <v>373</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O132" s="1" t="s">
         <v>373</v>
@@ -7550,7 +7571,7 @@
     </row>
     <row r="133" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>373</v>
@@ -7571,7 +7592,7 @@
         <v>373</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>373</v>
@@ -7582,7 +7603,7 @@
     </row>
     <row r="134" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>373</v>
@@ -7603,7 +7624,7 @@
         <v>373</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O134" s="1" t="s">
         <v>373</v>
@@ -7614,7 +7635,7 @@
     </row>
     <row r="135" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>373</v>
@@ -7635,7 +7656,7 @@
         <v>373</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>373</v>
@@ -7646,7 +7667,7 @@
     </row>
     <row r="136" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>373</v>
@@ -7667,7 +7688,7 @@
         <v>373</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>373</v>
@@ -7678,7 +7699,7 @@
     </row>
     <row r="137" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>373</v>
@@ -7699,7 +7720,7 @@
         <v>373</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>373</v>
@@ -7710,7 +7731,7 @@
     </row>
     <row r="138" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>373</v>
@@ -7731,7 +7752,7 @@
         <v>373</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O138" s="1" t="s">
         <v>373</v>
@@ -7742,7 +7763,7 @@
     </row>
     <row r="139" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>373</v>
@@ -7763,7 +7784,7 @@
         <v>373</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>373</v>
@@ -7774,7 +7795,7 @@
     </row>
     <row r="140" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>373</v>
@@ -7795,7 +7816,7 @@
         <v>373</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>373</v>
@@ -7806,7 +7827,7 @@
     </row>
     <row r="141" ht="14.25">
       <c r="A141" s="2" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>373</v>
@@ -7827,7 +7848,7 @@
         <v>373</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>373</v>
@@ -7838,7 +7859,7 @@
     </row>
     <row r="142" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>373</v>
@@ -7859,7 +7880,7 @@
         <v>373</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O142" s="1" t="s">
         <v>373</v>
@@ -7870,7 +7891,7 @@
     </row>
     <row r="143" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>373</v>
@@ -7891,7 +7912,7 @@
         <v>373</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>373</v>
@@ -7902,7 +7923,7 @@
     </row>
     <row r="144" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>373</v>
@@ -7923,7 +7944,7 @@
         <v>373</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O144" s="1" t="s">
         <v>373</v>
@@ -7934,7 +7955,7 @@
     </row>
     <row r="145" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>373</v>
@@ -7955,7 +7976,7 @@
         <v>373</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O145" s="1" t="s">
         <v>373</v>
@@ -7966,7 +7987,7 @@
     </row>
     <row r="146" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>373</v>
@@ -7987,7 +8008,7 @@
         <v>373</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O146" s="1" t="s">
         <v>373</v>
@@ -7998,7 +8019,7 @@
     </row>
     <row r="147" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>373</v>
@@ -8019,7 +8040,7 @@
         <v>373</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O147" s="1" t="s">
         <v>373</v>
@@ -8030,7 +8051,7 @@
     </row>
     <row r="148" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>373</v>
@@ -8051,7 +8072,7 @@
         <v>373</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O148" s="1" t="s">
         <v>373</v>
@@ -8062,7 +8083,7 @@
     </row>
     <row r="149" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>373</v>
@@ -8083,7 +8104,7 @@
         <v>373</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O149" s="1" t="s">
         <v>373</v>
@@ -8094,7 +8115,7 @@
     </row>
     <row r="150" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>373</v>
@@ -8115,7 +8136,7 @@
         <v>373</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>373</v>
@@ -8126,7 +8147,7 @@
     </row>
     <row r="151" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>373</v>
@@ -8147,7 +8168,7 @@
         <v>373</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>373</v>
@@ -8158,7 +8179,7 @@
     </row>
     <row r="152" ht="14.25">
       <c r="A152" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>373</v>
@@ -8179,7 +8200,7 @@
         <v>373</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O152" s="1" t="s">
         <v>373</v>
@@ -8190,7 +8211,7 @@
     </row>
     <row r="153" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>373</v>
@@ -8211,7 +8232,7 @@
         <v>373</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O153" s="1" t="s">
         <v>373</v>
@@ -8222,7 +8243,7 @@
     </row>
     <row r="154" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>373</v>
@@ -8243,7 +8264,7 @@
         <v>373</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O154" s="1" t="s">
         <v>373</v>
@@ -8254,7 +8275,7 @@
     </row>
     <row r="155" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>373</v>
@@ -8275,7 +8296,7 @@
         <v>373</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O155" s="1" t="s">
         <v>373</v>
@@ -8286,7 +8307,7 @@
     </row>
     <row r="156" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>373</v>
@@ -8307,7 +8328,7 @@
         <v>373</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>373</v>
@@ -8318,7 +8339,7 @@
     </row>
     <row r="157" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>373</v>
@@ -8339,7 +8360,7 @@
         <v>373</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O157" s="1" t="s">
         <v>373</v>
@@ -8350,7 +8371,7 @@
     </row>
     <row r="158" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>373</v>
@@ -8371,7 +8392,7 @@
         <v>373</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O158" s="1" t="s">
         <v>373</v>
@@ -8382,7 +8403,7 @@
     </row>
     <row r="159" ht="14.25">
       <c r="A159" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>373</v>
@@ -8403,7 +8424,7 @@
         <v>373</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>373</v>
@@ -8414,7 +8435,7 @@
     </row>
     <row r="160" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>373</v>
@@ -8435,7 +8456,7 @@
         <v>373</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>373</v>
@@ -8446,7 +8467,7 @@
     </row>
     <row r="161" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>373</v>
@@ -8467,7 +8488,7 @@
         <v>373</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O161" s="1" t="s">
         <v>373</v>
@@ -8478,7 +8499,7 @@
     </row>
     <row r="162" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>373</v>
@@ -8499,7 +8520,7 @@
         <v>373</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O162" s="1" t="s">
         <v>373</v>
@@ -8510,7 +8531,7 @@
     </row>
     <row r="163" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>373</v>
@@ -8531,7 +8552,7 @@
         <v>373</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O163" s="1" t="s">
         <v>373</v>
@@ -8542,7 +8563,7 @@
     </row>
     <row r="164" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>373</v>
@@ -8563,7 +8584,7 @@
         <v>373</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O164" s="1" t="s">
         <v>373</v>
@@ -8574,7 +8595,7 @@
     </row>
     <row r="165" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>373</v>
@@ -8595,7 +8616,7 @@
         <v>373</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="O165" s="1" t="s">
         <v>373</v>
@@ -8606,7 +8627,7 @@
     </row>
     <row r="166" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>373</v>
@@ -8614,7 +8635,7 @@
       <c r="C166" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="G166" s="5" t="s">
+      <c r="G166" s="1" t="s">
         <v>373</v>
       </c>
       <c r="H166" s="1" t="s">
@@ -8626,13 +8647,77 @@
       <c r="J166" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N166" s="5" t="s">
-        <v>624</v>
+      <c r="N166" s="1" t="s">
+        <v>630</v>
       </c>
       <c r="O166" s="1" t="s">
         <v>373</v>
       </c>
       <c r="P166" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="167" ht="14.25">
+      <c r="A167" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="168" ht="14.25">
+      <c r="A168" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P168" s="1" t="s">
         <v>373</v>
       </c>
     </row>

--- a/health_data/src/my_dictionary_v2.xlsx
+++ b/health_data/src/my_dictionary_v2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="729">
   <si>
     <t>variable</t>
   </si>
@@ -1731,6 +1731,12 @@
     <t xml:space="preserve">It is important to note that deaths are counted in the county of residence of the deceased. So, even if a suicide occurred across the state, the death is counted in the home county of the individual who died. Suicides are defined by the ICD 10 codes X60-X84 (self-harm).</t>
   </si>
   <si>
+    <t>crude_suicide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 2020-2023, I set the stem for this variable to be raw_value.</t>
+  </si>
+  <si>
     <t>firearm_fatalities</t>
   </si>
   <si>
@@ -1893,6 +1899,42 @@
     <t xml:space="preserve">The numerator is the number of households in a county with a broadband internet subscription of any type (e.g., cable, DSL, fiber-optic, cell phone, or satellite) at their place of residence. The numerator includes affirmative responses to the ACS question: “At this house, apartment, or mobile home- do you or any member of this household have access to the Internet?” </t>
   </si>
   <si>
+    <t>voter_turnout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of citizen population 18 and older who voted in the 2020 USA Presidential election.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mit; acs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIT election data and science lab; american communtiy survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presumably, the number of USA citizens 18 and older who voted in the 2020 USA presidential election, but there is no concrete documentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presumably, the number of citizens 18 and older, bu there is no concreate documentation.</t>
+  </si>
+  <si>
+    <t>census_participation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of all households that self-responded to the 2020 census.</t>
+  </si>
+  <si>
+    <t>coqm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">census operational quality metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presumably, the number of households that self-responded to the 2020 census, but there is no concrete documentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presumably, the total number of households in a county, but there is no concrete documentation.</t>
+  </si>
+  <si>
     <t>population</t>
   </si>
   <si>
@@ -2022,6 +2064,9 @@
     <t>could_not_see_doctor_due_to_cost</t>
   </si>
   <si>
+    <t xml:space="preserve">This variable is not used in the rankings so documentation is more sparse. Based on how previous variables from this data source were constructed, it would seem as if all years of availability for this variable could be compared, but this is an informed guess.</t>
+  </si>
+  <si>
     <t>high_housing_costs</t>
   </si>
   <si>
@@ -2098,6 +2143,120 @@
   </si>
   <si>
     <t xml:space="preserve">Number of individuals ages 25 and older.</t>
+  </si>
+  <si>
+    <t>inadequate_social_support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults that reported not getting social/emotional support. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of adults reporting they do not get social/emotional support.</t>
+  </si>
+  <si>
+    <t>violent_crime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of reported violent crimes per 100,00 individuals.</t>
+  </si>
+  <si>
+    <t>ucr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uniform Crime Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State data sources used for Kentucky and Illinois in 2010 and just Illinois in 2011, 2012 and 2013.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of reported violent crimes to the police.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total population.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The variable is no longer used in the rankings so documentation is more sparse. The data provider recommends the following time comparisons: 2010-2011; 2012-2022. They do not offer reasons as to why.</t>
+  </si>
+  <si>
+    <t>access_to_healthy_foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of zip codes in a county with a healthy food outlet.</t>
+  </si>
+  <si>
+    <t>czcbp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">census zip code business patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of zip codes with a healthy food outlet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total number of zip codes in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthy food outlets include grocery stores (NAICS 445110) with &gt; 4 employees and produce stands or farmers’ markets (NAICS 445230).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The variable is no longer used in the rankings so documentation is more sparse. The data provider recommends the following time comparisons: 2010, 2011-2012. They do not offer reasons as to why.</t>
+  </si>
+  <si>
+    <t>access_to_recreational_facilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of recreational facilities per 100,000 people.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of recreational facilities in a county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total number of people in a county.</t>
+  </si>
+  <si>
+    <t>fast_food_restaurants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percent of restaurants that are fast food restaurants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of fast food restaurants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of restaurants in a county.</t>
+  </si>
+  <si>
+    <t>covid-19_age-adjusted_mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All deaths occurring between January 1, 2020 and December 31, 2020 due to COVID-19 per 100,000 people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of people who died due to COVID-19 between January 1, 2020 and December 31, 2020.</t>
+  </si>
+  <si>
+    <t>insufficient_sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of adults who report fewer than 7 hours of sleep on average.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of adults who report fewer than 7 hours of sleep a night on average.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The total number of adult respondents in the county.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This variable is not used in the rankings so documentation is more sparse. Based on how previous variables from this data source were constructed, it would seem as if the following comparisons should be ok: 2016-2020; 2021-2022, but this is an informed guess.</t>
+  </si>
+  <si>
+    <t>health_care_costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dartmouth atlas of health care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In 2013, the listed data source changed from the Health Resources and Services Administration &amp; Area Health Resource File (HRSA; AHRF)  to the Dartmouth Atlas of Health Care.</t>
   </si>
   <si>
     <t>adult_smoking_(fl)</t>
@@ -2873,7 +3032,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -2893,7 +3052,7 @@
     <col customWidth="1" min="13" max="13" style="1" width="70.00390625"/>
     <col customWidth="1" min="14" max="14" style="1" width="86.421875"/>
     <col customWidth="1" min="15" max="15" style="1" width="26.7109375"/>
-    <col customWidth="1" min="16" max="16" style="1" width="55.7109375"/>
+    <col customWidth="1" min="16" max="16" style="1" width="60.8515625"/>
     <col min="17" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
@@ -5843,11 +6002,11 @@
       </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>490</v>
+      <c r="B80" s="7" t="s">
+        <v>373</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>18</v>
@@ -5855,37 +6014,37 @@
       <c r="D80" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I80" s="1">
-        <v>0</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>25</v>
+      <c r="E80" s="1"/>
+      <c r="G80" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P80" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="81" ht="14.25">
       <c r="A81" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>18</v>
@@ -5896,14 +6055,11 @@
       <c r="E81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="G81" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="I81" s="1">
         <v>0</v>
@@ -5912,39 +6068,39 @@
         <v>23</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>502</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="14.25">
       <c r="A82" s="2" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>505</v>
+        <v>18</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>506</v>
+        <v>19</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I82" s="1">
         <v>0</v>
@@ -5953,80 +6109,77 @@
         <v>23</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="O82" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" ht="14.25">
       <c r="A83" s="2" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>68</v>
+        <v>511</v>
       </c>
       <c r="I83" s="1">
         <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>518</v>
+        <v>23</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84" ht="14.25">
       <c r="A84" s="2" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>68</v>
@@ -6035,94 +6188,109 @@
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="O84" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="A85" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>528</v>
+        <v>68</v>
       </c>
       <c r="I85" s="1">
         <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>40</v>
+        <v>519</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>521</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="O85" s="1" t="s">
         <v>71</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" ht="14.25">
       <c r="A86" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>195</v>
+        <v>527</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>221</v>
+        <v>528</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I86" s="1">
         <v>0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="87" ht="14.25">
       <c r="A87" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>195</v>
@@ -6131,10 +6299,10 @@
         <v>221</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="I87" s="1">
         <v>0</v>
@@ -6143,18 +6311,15 @@
         <v>33</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>539</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="14.25">
       <c r="A88" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>195</v>
@@ -6163,10 +6328,10 @@
         <v>221</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>286</v>
+        <v>540</v>
       </c>
       <c r="I88" s="1">
         <v>0</v>
@@ -6175,123 +6340,123 @@
         <v>33</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="P88" s="1" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="H89" s="1" t="s">
-        <v>68</v>
+        <v>286</v>
       </c>
       <c r="I89" s="1">
         <v>0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>517</v>
+        <v>33</v>
       </c>
       <c r="O89" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="7" t="s">
         <v>550</v>
       </c>
       <c r="I90" s="1">
         <v>0</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O90" s="1" t="s">
+      <c r="O90" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G91" s="1" t="s">
+      <c r="C91" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>550</v>
+      <c r="D91" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>556</v>
       </c>
       <c r="I91" s="1">
         <v>0</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="O91" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="92" ht="14.25">
       <c r="A92" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>556</v>
+        <v>68</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>550</v>
+        <v>68</v>
       </c>
       <c r="I92" s="1">
         <v>0</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="O92" s="1" t="s">
         <v>25</v>
@@ -6299,22 +6464,22 @@
     </row>
     <row r="93" ht="14.25">
       <c r="A93" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="I93" s="1">
         <v>0</v>
@@ -6322,31 +6487,28 @@
       <c r="J93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="O93" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="94" ht="14.25">
       <c r="A94" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="G94" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="I94" s="1">
         <v>0</v>
@@ -6360,22 +6522,22 @@
     </row>
     <row r="95" ht="14.25">
       <c r="A95" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="I95" s="1">
         <v>0</v>
@@ -6384,7 +6546,7 @@
         <v>33</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>25</v>
@@ -6392,22 +6554,22 @@
     </row>
     <row r="96" ht="14.25">
       <c r="A96" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="I96" s="1">
         <v>0</v>
@@ -6415,28 +6577,31 @@
       <c r="J96" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="K96" s="1" t="s">
+        <v>575</v>
+      </c>
       <c r="O96" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="A97" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="I97" s="1">
         <v>0</v>
@@ -6450,22 +6615,22 @@
     </row>
     <row r="98" ht="14.25">
       <c r="A98" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>195</v>
+        <v>559</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>221</v>
+        <v>560</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="I98" s="1">
         <v>0</v>
@@ -6473,28 +6638,31 @@
       <c r="J98" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="K98" s="1" t="s">
+        <v>582</v>
+      </c>
       <c r="O98" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="99" ht="14.25">
       <c r="A99" s="1" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="I99" s="1">
         <v>0</v>
@@ -6502,31 +6670,28 @@
       <c r="J99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="O99" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="100" ht="14.25">
       <c r="A100" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="I100" s="1">
         <v>0</v>
@@ -6539,55 +6704,55 @@
       </c>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="2" t="s">
-        <v>585</v>
+      <c r="A101" s="1" t="s">
+        <v>589</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>373</v>
+        <v>590</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>373</v>
+        <v>591</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>373</v>
+        <v>564</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="M101" s="1"/>
       <c r="O101" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P101" s="1"/>
     </row>
     <row r="102" ht="14.25">
-      <c r="A102" s="2" t="s">
-        <v>586</v>
+      <c r="A102" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>195</v>
+        <v>559</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>221</v>
+        <v>560</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="I102" s="1">
         <v>0</v>
@@ -6595,57 +6760,57 @@
       <c r="J102" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="K102" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="O102" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>590</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="14.25">
-      <c r="A103" s="2" t="s">
-        <v>591</v>
+      <c r="A103" s="1" t="s">
+        <v>596</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>373</v>
+        <v>597</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>257</v>
+        <v>559</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>258</v>
+        <v>560</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>373</v>
+        <v>598</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>373</v>
+        <v>564</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>373</v>
+        <v>33</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>373</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="14.25">
       <c r="A104" s="2" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>593</v>
+        <v>28</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>594</v>
+        <v>29</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>373</v>
@@ -6657,501 +6822,545 @@
         <v>373</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>33</v>
+        <v>373</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>373</v>
+        <v>71</v>
+      </c>
+      <c r="P104" s="7" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="105" ht="14.25">
       <c r="A105" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>597</v>
+        <v>195</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>598</v>
+        <v>221</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>550</v>
+        <v>604</v>
       </c>
       <c r="I105" s="1">
         <v>0</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>601</v>
+        <v>33</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
+      </c>
+      <c r="P105" s="1" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="106" ht="14.25">
       <c r="A106" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>603</v>
+        <v>373</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>604</v>
+        <v>373</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="I106" s="1">
-        <v>0</v>
+        <v>373</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>373</v>
       </c>
       <c r="J106" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P106" s="1"/>
-    </row>
-    <row r="107" ht="14.25">
-      <c r="A107" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="I107" s="1">
-        <v>0</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K107" s="9"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P107" s="1"/>
+      <c r="O107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="108" ht="14.25">
-      <c r="A108" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="G108" s="7" t="s">
+      <c r="A108" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="B108" s="1" t="s">
         <v>611</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>564</v>
       </c>
       <c r="I108" s="1">
         <v>0</v>
       </c>
-      <c r="J108" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K108" s="9"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="7" t="s">
+      <c r="J108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O108" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P108" s="1"/>
     </row>
     <row r="109" ht="14.25">
       <c r="A109" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>373</v>
+        <v>617</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>618</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E109" s="1"/>
       <c r="G109" s="1" t="s">
-        <v>373</v>
+        <v>619</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>373</v>
+        <v>620</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>613</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
       <c r="O109" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
     </row>
     <row r="110" ht="14.25">
       <c r="A110" s="2" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>373</v>
+        <v>622</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E110" s="1"/>
       <c r="G110" s="1" t="s">
         <v>373</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>373</v>
+      <c r="I110" s="1">
+        <v>0</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>613</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K110" s="1"/>
+      <c r="N110" s="1"/>
       <c r="O110" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P110" s="1"/>
     </row>
     <row r="111" ht="14.25">
       <c r="A111" s="2" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>373</v>
+        <v>624</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>373</v>
+        <v>195</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>373</v>
+        <v>625</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>373</v>
+        <v>626</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>613</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="K111" s="1"/>
+      <c r="N111" s="1"/>
       <c r="O111" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>373</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P111" s="1"/>
     </row>
     <row r="112" ht="14.25">
       <c r="A112" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>373</v>
+        <v>627</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K112" s="9"/>
+      <c r="M112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="O112" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="14.25">
-      <c r="A113" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>373</v>
+      <c r="A113" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="9"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P113" s="7" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="114" ht="14.25">
-      <c r="A114" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N114" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>373</v>
+      <c r="A114" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="G114" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K114" s="9"/>
+      <c r="L114" s="1"/>
+      <c r="N114" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="O114" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P114" s="7" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="115" ht="14.25">
-      <c r="A115" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N115" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>373</v>
-      </c>
+      <c r="A115" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="G115" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="9"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="7"/>
+      <c r="O115" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P115" s="7"/>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>373</v>
-      </c>
+      <c r="A116" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="G116" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K116" s="9"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P116" s="7"/>
     </row>
     <row r="117" ht="14.25">
-      <c r="A117" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>373</v>
-      </c>
+      <c r="A117" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="G117" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="I117" s="1">
+        <v>1</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" s="9"/>
+      <c r="L117" s="7"/>
+      <c r="N117" s="7"/>
+      <c r="O117" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P117" s="7"/>
     </row>
     <row r="118" ht="14.25">
-      <c r="A118" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>373</v>
+      <c r="A118" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="I118" s="1">
+        <v>1</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K118" s="9"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P118" s="7" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="119" ht="14.25">
-      <c r="A119" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N119" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="P119" s="1" t="s">
+      <c r="A119" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K119" s="9"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="7"/>
+      <c r="O119" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P119" s="7" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="120" ht="14.25">
       <c r="A120" s="2" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>373</v>
@@ -7159,6 +7368,7 @@
       <c r="C120" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="D120" s="1"/>
       <c r="G120" s="1" t="s">
         <v>373</v>
       </c>
@@ -7172,7 +7382,7 @@
         <v>373</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
       <c r="O120" s="1" t="s">
         <v>373</v>
@@ -7183,7 +7393,7 @@
     </row>
     <row r="121" ht="14.25">
       <c r="A121" s="2" t="s">
-        <v>626</v>
+        <v>667</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>373</v>
@@ -7204,7 +7414,7 @@
         <v>373</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
       <c r="O121" s="1" t="s">
         <v>373</v>
@@ -7215,7 +7425,7 @@
     </row>
     <row r="122" ht="14.25">
       <c r="A122" s="2" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>373</v>
@@ -7236,7 +7446,7 @@
         <v>373</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
       <c r="O122" s="1" t="s">
         <v>373</v>
@@ -7247,7 +7457,7 @@
     </row>
     <row r="123" ht="14.25">
       <c r="A123" s="2" t="s">
-        <v>628</v>
+        <v>669</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>373</v>
@@ -7268,7 +7478,7 @@
         <v>373</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
       <c r="O123" s="1" t="s">
         <v>373</v>
@@ -7279,7 +7489,7 @@
     </row>
     <row r="124" ht="14.25">
       <c r="A124" s="2" t="s">
-        <v>629</v>
+        <v>670</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>373</v>
@@ -7300,7 +7510,7 @@
         <v>373</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="O124" s="1" t="s">
         <v>373</v>
@@ -7311,7 +7521,7 @@
     </row>
     <row r="125" ht="14.25">
       <c r="A125" s="2" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>373</v>
@@ -7332,7 +7542,7 @@
         <v>373</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="O125" s="1" t="s">
         <v>373</v>
@@ -7343,7 +7553,7 @@
     </row>
     <row r="126" ht="14.25">
       <c r="A126" s="2" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>373</v>
@@ -7364,7 +7574,7 @@
         <v>373</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="O126" s="1" t="s">
         <v>373</v>
@@ -7375,7 +7585,7 @@
     </row>
     <row r="127" ht="14.25">
       <c r="A127" s="2" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>373</v>
@@ -7396,7 +7606,7 @@
         <v>373</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="O127" s="1" t="s">
         <v>373</v>
@@ -7407,7 +7617,7 @@
     </row>
     <row r="128" ht="14.25">
       <c r="A128" s="2" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>373</v>
@@ -7428,7 +7638,7 @@
         <v>373</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="O128" s="1" t="s">
         <v>373</v>
@@ -7439,7 +7649,7 @@
     </row>
     <row r="129" ht="14.25">
       <c r="A129" s="2" t="s">
-        <v>635</v>
+        <v>676</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>373</v>
@@ -7459,9 +7669,8 @@
       <c r="J129" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K129" s="1"/>
       <c r="N129" s="1" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="O129" s="1" t="s">
         <v>373</v>
@@ -7472,7 +7681,7 @@
     </row>
     <row r="130" ht="14.25">
       <c r="A130" s="2" t="s">
-        <v>636</v>
+        <v>677</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>373</v>
@@ -7492,11 +7701,8 @@
       <c r="J130" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K130" s="1" t="s">
-        <v>637</v>
-      </c>
       <c r="N130" s="1" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="O130" s="1" t="s">
         <v>373</v>
@@ -7507,7 +7713,7 @@
     </row>
     <row r="131" ht="14.25">
       <c r="A131" s="2" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>373</v>
@@ -7528,7 +7734,7 @@
         <v>373</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="O131" s="1" t="s">
         <v>373</v>
@@ -7539,7 +7745,7 @@
     </row>
     <row r="132" ht="14.25">
       <c r="A132" s="2" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>373</v>
@@ -7560,7 +7766,7 @@
         <v>373</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="O132" s="1" t="s">
         <v>373</v>
@@ -7571,7 +7777,7 @@
     </row>
     <row r="133" ht="14.25">
       <c r="A133" s="2" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>373</v>
@@ -7592,7 +7798,7 @@
         <v>373</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="O133" s="1" t="s">
         <v>373</v>
@@ -7603,7 +7809,7 @@
     </row>
     <row r="134" ht="14.25">
       <c r="A134" s="2" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>373</v>
@@ -7624,7 +7830,7 @@
         <v>373</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>630</v>
+        <v>675</v>
       </c>
       <c r="O134" s="1" t="s">
         <v>373</v>
@@ -7635,7 +7841,7 @@
     </row>
     <row r="135" ht="14.25">
       <c r="A135" s="2" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>373</v>
@@ -7656,7 +7862,7 @@
         <v>373</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O135" s="1" t="s">
         <v>373</v>
@@ -7667,7 +7873,7 @@
     </row>
     <row r="136" ht="14.25">
       <c r="A136" s="2" t="s">
-        <v>643</v>
+        <v>684</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>373</v>
@@ -7688,7 +7894,7 @@
         <v>373</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O136" s="1" t="s">
         <v>373</v>
@@ -7699,7 +7905,7 @@
     </row>
     <row r="137" ht="14.25">
       <c r="A137" s="2" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>373</v>
@@ -7720,7 +7926,7 @@
         <v>373</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>373</v>
@@ -7731,7 +7937,7 @@
     </row>
     <row r="138" ht="14.25">
       <c r="A138" s="2" t="s">
-        <v>645</v>
+        <v>686</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>373</v>
@@ -7752,7 +7958,7 @@
         <v>373</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O138" s="1" t="s">
         <v>373</v>
@@ -7763,7 +7969,7 @@
     </row>
     <row r="139" ht="14.25">
       <c r="A139" s="2" t="s">
-        <v>646</v>
+        <v>687</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>373</v>
@@ -7784,7 +7990,7 @@
         <v>373</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O139" s="1" t="s">
         <v>373</v>
@@ -7795,7 +8001,7 @@
     </row>
     <row r="140" ht="14.25">
       <c r="A140" s="2" t="s">
-        <v>647</v>
+        <v>688</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>373</v>
@@ -7815,8 +8021,9 @@
       <c r="J140" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="K140" s="1"/>
       <c r="N140" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>373</v>
@@ -7827,7 +8034,7 @@
     </row>
     <row r="141" ht="14.25">
       <c r="A141" s="2" t="s">
-        <v>648</v>
+        <v>689</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>373</v>
@@ -7847,8 +8054,11 @@
       <c r="J141" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="K141" s="1" t="s">
+        <v>690</v>
+      </c>
       <c r="N141" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>373</v>
@@ -7859,7 +8069,7 @@
     </row>
     <row r="142" ht="14.25">
       <c r="A142" s="2" t="s">
-        <v>649</v>
+        <v>691</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>373</v>
@@ -7880,7 +8090,7 @@
         <v>373</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O142" s="1" t="s">
         <v>373</v>
@@ -7891,7 +8101,7 @@
     </row>
     <row r="143" ht="14.25">
       <c r="A143" s="2" t="s">
-        <v>650</v>
+        <v>692</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>373</v>
@@ -7912,7 +8122,7 @@
         <v>373</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O143" s="1" t="s">
         <v>373</v>
@@ -7923,7 +8133,7 @@
     </row>
     <row r="144" ht="14.25">
       <c r="A144" s="2" t="s">
-        <v>651</v>
+        <v>693</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>373</v>
@@ -7944,7 +8154,7 @@
         <v>373</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O144" s="1" t="s">
         <v>373</v>
@@ -7955,7 +8165,7 @@
     </row>
     <row r="145" ht="14.25">
       <c r="A145" s="2" t="s">
-        <v>652</v>
+        <v>694</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>373</v>
@@ -7976,7 +8186,7 @@
         <v>373</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O145" s="1" t="s">
         <v>373</v>
@@ -7987,7 +8197,7 @@
     </row>
     <row r="146" ht="14.25">
       <c r="A146" s="2" t="s">
-        <v>653</v>
+        <v>695</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>373</v>
@@ -8008,7 +8218,7 @@
         <v>373</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O146" s="1" t="s">
         <v>373</v>
@@ -8019,7 +8229,7 @@
     </row>
     <row r="147" ht="14.25">
       <c r="A147" s="2" t="s">
-        <v>654</v>
+        <v>696</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>373</v>
@@ -8040,7 +8250,7 @@
         <v>373</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O147" s="1" t="s">
         <v>373</v>
@@ -8051,7 +8261,7 @@
     </row>
     <row r="148" ht="14.25">
       <c r="A148" s="2" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>373</v>
@@ -8072,7 +8282,7 @@
         <v>373</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O148" s="1" t="s">
         <v>373</v>
@@ -8083,7 +8293,7 @@
     </row>
     <row r="149" ht="14.25">
       <c r="A149" s="2" t="s">
-        <v>656</v>
+        <v>698</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>373</v>
@@ -8104,7 +8314,7 @@
         <v>373</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O149" s="1" t="s">
         <v>373</v>
@@ -8115,7 +8325,7 @@
     </row>
     <row r="150" ht="14.25">
       <c r="A150" s="2" t="s">
-        <v>657</v>
+        <v>699</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>373</v>
@@ -8136,7 +8346,7 @@
         <v>373</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>373</v>
@@ -8147,7 +8357,7 @@
     </row>
     <row r="151" ht="14.25">
       <c r="A151" s="2" t="s">
-        <v>658</v>
+        <v>700</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>373</v>
@@ -8168,7 +8378,7 @@
         <v>373</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O151" s="1" t="s">
         <v>373</v>
@@ -8179,7 +8389,7 @@
     </row>
     <row r="152" ht="14.25">
       <c r="A152" s="2" t="s">
-        <v>659</v>
+        <v>701</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>373</v>
@@ -8200,7 +8410,7 @@
         <v>373</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O152" s="1" t="s">
         <v>373</v>
@@ -8211,7 +8421,7 @@
     </row>
     <row r="153" ht="14.25">
       <c r="A153" s="2" t="s">
-        <v>660</v>
+        <v>702</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>373</v>
@@ -8232,7 +8442,7 @@
         <v>373</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O153" s="1" t="s">
         <v>373</v>
@@ -8243,7 +8453,7 @@
     </row>
     <row r="154" ht="14.25">
       <c r="A154" s="2" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>373</v>
@@ -8264,7 +8474,7 @@
         <v>373</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O154" s="1" t="s">
         <v>373</v>
@@ -8275,7 +8485,7 @@
     </row>
     <row r="155" ht="14.25">
       <c r="A155" s="2" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>373</v>
@@ -8296,7 +8506,7 @@
         <v>373</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O155" s="1" t="s">
         <v>373</v>
@@ -8307,7 +8517,7 @@
     </row>
     <row r="156" ht="14.25">
       <c r="A156" s="2" t="s">
-        <v>663</v>
+        <v>705</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>373</v>
@@ -8328,7 +8538,7 @@
         <v>373</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O156" s="1" t="s">
         <v>373</v>
@@ -8339,7 +8549,7 @@
     </row>
     <row r="157" ht="14.25">
       <c r="A157" s="2" t="s">
-        <v>664</v>
+        <v>706</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>373</v>
@@ -8360,7 +8570,7 @@
         <v>373</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O157" s="1" t="s">
         <v>373</v>
@@ -8371,7 +8581,7 @@
     </row>
     <row r="158" ht="14.25">
       <c r="A158" s="2" t="s">
-        <v>665</v>
+        <v>707</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>373</v>
@@ -8392,7 +8602,7 @@
         <v>373</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O158" s="1" t="s">
         <v>373</v>
@@ -8403,7 +8613,7 @@
     </row>
     <row r="159" ht="14.25">
       <c r="A159" s="2" t="s">
-        <v>666</v>
+        <v>708</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>373</v>
@@ -8424,7 +8634,7 @@
         <v>373</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O159" s="1" t="s">
         <v>373</v>
@@ -8435,7 +8645,7 @@
     </row>
     <row r="160" ht="14.25">
       <c r="A160" s="2" t="s">
-        <v>667</v>
+        <v>709</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>373</v>
@@ -8456,7 +8666,7 @@
         <v>373</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O160" s="1" t="s">
         <v>373</v>
@@ -8467,7 +8677,7 @@
     </row>
     <row r="161" ht="14.25">
       <c r="A161" s="2" t="s">
-        <v>668</v>
+        <v>710</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>373</v>
@@ -8488,7 +8698,7 @@
         <v>373</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O161" s="1" t="s">
         <v>373</v>
@@ -8499,7 +8709,7 @@
     </row>
     <row r="162" ht="14.25">
       <c r="A162" s="2" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>373</v>
@@ -8520,7 +8730,7 @@
         <v>373</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O162" s="1" t="s">
         <v>373</v>
@@ -8531,7 +8741,7 @@
     </row>
     <row r="163" ht="14.25">
       <c r="A163" s="2" t="s">
-        <v>670</v>
+        <v>712</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>373</v>
@@ -8552,7 +8762,7 @@
         <v>373</v>
       </c>
       <c r="N163" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O163" s="1" t="s">
         <v>373</v>
@@ -8563,7 +8773,7 @@
     </row>
     <row r="164" ht="14.25">
       <c r="A164" s="2" t="s">
-        <v>671</v>
+        <v>713</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>373</v>
@@ -8584,7 +8794,7 @@
         <v>373</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O164" s="1" t="s">
         <v>373</v>
@@ -8595,7 +8805,7 @@
     </row>
     <row r="165" ht="14.25">
       <c r="A165" s="2" t="s">
-        <v>672</v>
+        <v>714</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>373</v>
@@ -8616,7 +8826,7 @@
         <v>373</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O165" s="1" t="s">
         <v>373</v>
@@ -8627,7 +8837,7 @@
     </row>
     <row r="166" ht="14.25">
       <c r="A166" s="2" t="s">
-        <v>673</v>
+        <v>715</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>373</v>
@@ -8648,7 +8858,7 @@
         <v>373</v>
       </c>
       <c r="N166" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O166" s="1" t="s">
         <v>373</v>
@@ -8659,7 +8869,7 @@
     </row>
     <row r="167" ht="14.25">
       <c r="A167" s="2" t="s">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>373</v>
@@ -8680,7 +8890,7 @@
         <v>373</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O167" s="1" t="s">
         <v>373</v>
@@ -8691,7 +8901,7 @@
     </row>
     <row r="168" ht="14.25">
       <c r="A168" s="2" t="s">
-        <v>675</v>
+        <v>717</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>373</v>
@@ -8712,12 +8922,364 @@
         <v>373</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>630</v>
+        <v>683</v>
       </c>
       <c r="O168" s="1" t="s">
         <v>373</v>
       </c>
       <c r="P168" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="169" ht="14.25">
+      <c r="A169" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="170" ht="14.25">
+      <c r="A170" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="171" ht="14.25">
+      <c r="A171" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" ht="14.25">
+      <c r="A172" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="173" ht="14.25">
+      <c r="A173" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="174" ht="14.25">
+      <c r="A174" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="175" ht="14.25">
+      <c r="A175" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="176" ht="14.25">
+      <c r="A176" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="177" ht="14.25">
+      <c r="A177" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="178" ht="14.25">
+      <c r="A178" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="179" ht="14.25">
+      <c r="A179" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="P179" s="1" t="s">
         <v>373</v>
       </c>
     </row>
